--- a/app/config/tables/maleClients/forms/partner6Month/partner6Month.xlsx
+++ b/app/config/tables/maleClients/forms/partner6Month/partner6Month.xlsx
@@ -1,3 +1,24 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="430">
@@ -1690,4 +1711,7918 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" style="7"/>
+    <col min="2" max="2" width="26.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="22" customWidth="1"/>
+    <col min="5" max="5" width="66" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="11" customWidth="1"/>
+    <col min="7" max="8" width="13.83203125" style="11"/>
+    <col min="9" max="9" width="13.83203125" style="25"/>
+    <col min="10" max="16" width="13.83203125" style="11"/>
+    <col min="17" max="16384" width="13.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" customFormat="1" ht="12">
+      <c r="B2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" s="14" customFormat="1" ht="12">
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1" ht="12">
+      <c r="B4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:17" s="14" customFormat="1" ht="25">
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="195" customHeight="1">
+      <c r="B6" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="195" customHeight="1">
+      <c r="B7" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="30">
+      <c r="B9" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" ht="30">
+      <c r="B10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="45">
+      <c r="B11" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" ht="30">
+      <c r="B13" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" ht="30">
+      <c r="B14" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
+      <c r="B15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="2:18" ht="30">
+      <c r="B18" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="2:18" customFormat="1" ht="48">
+      <c r="B24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" t="s">
+        <v>349</v>
+      </c>
+      <c r="F24" t="s">
+        <v>336</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="2:18" customFormat="1" ht="12">
+      <c r="B25" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" t="s">
+        <v>337</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="2:18" customFormat="1" ht="12">
+      <c r="B26" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="2:18" customFormat="1" ht="12">
+      <c r="B27" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" t="s">
+        <v>338</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="2:18" customFormat="1" ht="12">
+      <c r="B28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="E28" t="s">
+        <v>350</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="2:18" customFormat="1" ht="12">
+      <c r="B29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="E29" t="s">
+        <v>351</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="2:18" customFormat="1" ht="12">
+      <c r="B30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="E30" t="s">
+        <v>352</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="2:18" customFormat="1" ht="24">
+      <c r="B31" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="E31" t="s">
+        <v>339</v>
+      </c>
+      <c r="F31" t="s">
+        <v>340</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="2:18" customFormat="1" ht="12">
+      <c r="B32" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="2:17" ht="30">
+      <c r="B35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="21"/>
+      <c r="C36" s="6"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="21"/>
+      <c r="C37" s="6"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="21"/>
+      <c r="C38" s="6"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="21"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="21"/>
+      <c r="C40" s="6"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="21"/>
+      <c r="C41" s="6"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="21"/>
+      <c r="C42" s="6"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="21"/>
+      <c r="C43" s="6"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="21"/>
+      <c r="C44" s="6"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="21"/>
+      <c r="C45" s="6"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="21"/>
+      <c r="C46" s="6"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="21"/>
+      <c r="C47" s="6"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="21"/>
+      <c r="C48" s="6"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="21"/>
+      <c r="C49" s="6"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="21"/>
+      <c r="C50" s="6"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="21"/>
+      <c r="C51" s="6"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F489"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="3"/>
+    <col min="3" max="3" width="28.5" style="3" customWidth="1"/>
+    <col min="4" max="6" width="13.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="30" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="30" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="30" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="45" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="30" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" ht="30" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="B81" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" ht="30" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" ht="30" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" ht="30" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="30" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" ht="30" customHeight="1">
+      <c r="B90" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" ht="30" customHeight="1">
+      <c r="B91" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" customHeight="1">
+      <c r="B92" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" ht="30" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" ht="30" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" ht="30" customHeight="1">
+      <c r="B97" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" ht="30" customHeight="1">
+      <c r="B98" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" ht="30" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" ht="30" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" ht="30" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1">
+      <c r="B106" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" ht="30" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" ht="30" customHeight="1">
+      <c r="A110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" ht="30" customHeight="1">
+      <c r="A111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" ht="30" customHeight="1">
+      <c r="A112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" ht="30" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" ht="30" customHeight="1">
+      <c r="A114" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" ht="30" customHeight="1">
+      <c r="A115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" ht="30" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" ht="30" customHeight="1">
+      <c r="A117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" ht="30" customHeight="1">
+      <c r="B118" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" ht="30" customHeight="1">
+      <c r="A119" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" ht="30" customHeight="1">
+      <c r="A120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" ht="30" customHeight="1">
+      <c r="A121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" ht="30" customHeight="1">
+      <c r="A122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" ht="30" customHeight="1">
+      <c r="A123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" ht="30" customHeight="1">
+      <c r="A124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" ht="30" customHeight="1">
+      <c r="A125" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" ht="30" customHeight="1">
+      <c r="A126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" ht="30" customHeight="1">
+      <c r="A127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" ht="30" customHeight="1">
+      <c r="A128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" ht="30" customHeight="1">
+      <c r="B129" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" ht="30" customHeight="1">
+      <c r="B135" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" ht="30" customHeight="1">
+      <c r="A136" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" ht="30" customHeight="1">
+      <c r="A137" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" ht="30" customHeight="1">
+      <c r="A138" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" ht="30" customHeight="1">
+      <c r="A139" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" ht="30" customHeight="1">
+      <c r="A140" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" ht="30" customHeight="1">
+      <c r="B141" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" ht="30" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" ht="30" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" ht="30" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" ht="30" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" ht="30" customHeight="1">
+      <c r="A146" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" ht="30" customHeight="1">
+      <c r="A147" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" ht="30" customHeight="1">
+      <c r="A148" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" ht="30" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" ht="30" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" ht="30" customHeight="1">
+      <c r="A151" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A152" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" ht="30" customHeight="1">
+      <c r="A153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" ht="30" customHeight="1">
+      <c r="A154" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" ht="30" customHeight="1">
+      <c r="B155" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" ht="30" customHeight="1">
+      <c r="A156" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" ht="30" customHeight="1">
+      <c r="A157" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" ht="30" customHeight="1">
+      <c r="A158" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" ht="30" customHeight="1">
+      <c r="A159" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" ht="30" customHeight="1">
+      <c r="B160" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" ht="30" customHeight="1">
+      <c r="A161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:6" ht="30" customHeight="1">
+      <c r="A162" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" ht="30" customHeight="1">
+      <c r="A163" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:6" ht="30" customHeight="1">
+      <c r="A164" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:6" ht="30" customHeight="1">
+      <c r="A165" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" ht="30" customHeight="1">
+      <c r="A166" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:6" ht="30" customHeight="1">
+      <c r="A167" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:6" ht="30" customHeight="1">
+      <c r="A168" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:6" ht="30" customHeight="1">
+      <c r="B169" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:6" ht="30" customHeight="1">
+      <c r="A170" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" ht="30" customHeight="1">
+      <c r="A171" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:6" ht="30" customHeight="1">
+      <c r="A172" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" ht="30" customHeight="1">
+      <c r="A173" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:6" ht="30" customHeight="1">
+      <c r="A174" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" ht="30" customHeight="1">
+      <c r="B175" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" ht="30" customHeight="1">
+      <c r="A176" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="1:6" ht="30" customHeight="1">
+      <c r="A177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" ht="30" customHeight="1">
+      <c r="A178" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" ht="30" customHeight="1">
+      <c r="A179" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" ht="30" customHeight="1">
+      <c r="A180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="1:6" ht="30" customHeight="1">
+      <c r="B181" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="1:6" ht="30" customHeight="1">
+      <c r="A182" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="1:6" ht="30" customHeight="1">
+      <c r="A183" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:6" ht="30" customHeight="1">
+      <c r="A184" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:6" ht="30" customHeight="1">
+      <c r="A185" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="1:6" ht="30" customHeight="1">
+      <c r="A186" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:6" ht="30" customHeight="1">
+      <c r="B187" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:6" ht="30" customHeight="1">
+      <c r="A188" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:6" ht="30" customHeight="1">
+      <c r="A189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="1:6" ht="30" customHeight="1">
+      <c r="A190" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:6" ht="30" customHeight="1">
+      <c r="A191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:6" ht="30" customHeight="1">
+      <c r="A192" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="1:6" ht="30" customHeight="1">
+      <c r="B193" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:6" ht="30" customHeight="1">
+      <c r="A194" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:6" ht="30" customHeight="1">
+      <c r="A195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6" ht="30" customHeight="1">
+      <c r="A196" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:6" ht="30" customHeight="1">
+      <c r="A197" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" ht="30" customHeight="1">
+      <c r="A198" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6" ht="30" customHeight="1">
+      <c r="A199" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="1:6" ht="30" customHeight="1">
+      <c r="A200" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="1:6" ht="30" customHeight="1">
+      <c r="B201" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:6" ht="30" customHeight="1">
+      <c r="A202" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6" ht="30" customHeight="1">
+      <c r="A203" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:6" ht="30" customHeight="1">
+      <c r="A204" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="1:6" ht="30" customHeight="1">
+      <c r="A205" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6" ht="30" customHeight="1">
+      <c r="A206" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6" ht="30" customHeight="1">
+      <c r="A207" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6" ht="30" customHeight="1">
+      <c r="A208" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="1:6" ht="30" customHeight="1">
+      <c r="A209" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="1:6" ht="30" customHeight="1">
+      <c r="A210" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="1:6" ht="30" customHeight="1">
+      <c r="A211" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="1:6" ht="30" customHeight="1">
+      <c r="A212" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="1:6" ht="30" customHeight="1">
+      <c r="A213" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="1:6" ht="30" customHeight="1">
+      <c r="A214" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="1:6" ht="30" customHeight="1">
+      <c r="A215" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="1:6" ht="30" customHeight="1">
+      <c r="A216" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="1:6" ht="30" customHeight="1">
+      <c r="A217" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="1:6" ht="30" customHeight="1">
+      <c r="A218" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="1:6" ht="30" customHeight="1">
+      <c r="B219" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:6" ht="30" customHeight="1">
+      <c r="A220" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="1:6" ht="30" customHeight="1">
+      <c r="A221" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="1:6" ht="30" customHeight="1">
+      <c r="A222" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:6" ht="30" customHeight="1">
+      <c r="A223" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="1:6" ht="30" customHeight="1">
+      <c r="A224" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="1:6" ht="30" customHeight="1">
+      <c r="A225" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="1:6" ht="30" customHeight="1">
+      <c r="A226" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="1:6" ht="30" customHeight="1">
+      <c r="A227" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="1:6" ht="30" customHeight="1">
+      <c r="A228" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="1:6" ht="30" customHeight="1">
+      <c r="A229" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:6" ht="30" customHeight="1">
+      <c r="A230" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="1:6" ht="30" customHeight="1">
+      <c r="A231" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" ht="30" customHeight="1">
+      <c r="A232" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" ht="30" customHeight="1">
+      <c r="A233" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234" spans="1:6" ht="30" customHeight="1">
+      <c r="A234" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="1:6" ht="30" customHeight="1">
+      <c r="A235" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" ht="30" customHeight="1">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="1:6" ht="30" customHeight="1">
+      <c r="A237" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+    </row>
+    <row r="238" spans="1:6" ht="30" customHeight="1">
+      <c r="A238" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" ht="30" customHeight="1">
+      <c r="A239" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="1:6" ht="30" customHeight="1">
+      <c r="A240" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="1:6" ht="30" customHeight="1">
+      <c r="A241" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="1:6" ht="30" customHeight="1">
+      <c r="A242" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="1:6" ht="30" customHeight="1">
+      <c r="A243" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:6" ht="30" customHeight="1">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245" spans="1:6" ht="30" customHeight="1">
+      <c r="A245" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="1:6" ht="30" customHeight="1">
+      <c r="A246" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="1:6" ht="30" customHeight="1">
+      <c r="A247" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" ht="30" customHeight="1">
+      <c r="A248" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="1:6" ht="30" customHeight="1">
+      <c r="B249" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:6" ht="30" customHeight="1">
+      <c r="A250" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251" spans="1:6" ht="30" customHeight="1">
+      <c r="A251" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="1:6" ht="30" customHeight="1">
+      <c r="A252" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="1:6" ht="30" customHeight="1">
+      <c r="A253" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:6" ht="30" customHeight="1">
+      <c r="A254" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="1:6" ht="30" customHeight="1">
+      <c r="A255" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="1:6" ht="30" customHeight="1">
+      <c r="B256" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="1:6" ht="30" customHeight="1">
+      <c r="A257" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="1:6" ht="30" customHeight="1">
+      <c r="A258" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="1:6" ht="30" customHeight="1">
+      <c r="A259" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="1:6" ht="30" customHeight="1">
+      <c r="A260" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="1:6" ht="30" customHeight="1">
+      <c r="A261" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="1:6" ht="30" customHeight="1">
+      <c r="B262" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="1:6" ht="30" customHeight="1">
+      <c r="A263" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" ht="30" customHeight="1">
+      <c r="A264" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="1:6" ht="30" customHeight="1">
+      <c r="A265" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="1:6" ht="30" customHeight="1">
+      <c r="A266" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="1:6" ht="30" customHeight="1">
+      <c r="B267" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="1:6" ht="30" customHeight="1">
+      <c r="A268" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="1:6" ht="30" customHeight="1">
+      <c r="A269" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="1:6" ht="30" customHeight="1">
+      <c r="A270" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="1:6" ht="30" customHeight="1">
+      <c r="A271" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="1:6" ht="30" customHeight="1">
+      <c r="B272" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="1:6" ht="30" customHeight="1">
+      <c r="A273" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="1:6" ht="30" customHeight="1">
+      <c r="A274" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="1:6" ht="30" customHeight="1">
+      <c r="A275" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="1:6" ht="30" customHeight="1">
+      <c r="A276" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="1:6" ht="30" customHeight="1">
+      <c r="A277" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="1:6" ht="30" customHeight="1">
+      <c r="A278" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="1:6" ht="30" customHeight="1">
+      <c r="A279" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="1:6" ht="15" customHeight="1">
+      <c r="B280" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="1:6" ht="15" customHeight="1">
+      <c r="A281" s="8"/>
+      <c r="B281" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C281" s="8"/>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282" spans="1:6" ht="15" customHeight="1">
+      <c r="A282" t="s">
+        <v>243</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C282" t="s">
+        <v>118</v>
+      </c>
+      <c r="E282" s="2"/>
+    </row>
+    <row r="283" spans="1:6" ht="15" customHeight="1">
+      <c r="A283" t="s">
+        <v>243</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C283" t="s">
+        <v>119</v>
+      </c>
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="1:6" ht="15" customHeight="1">
+      <c r="A284" t="s">
+        <v>243</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C284" t="s">
+        <v>145</v>
+      </c>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:6" ht="15" customHeight="1">
+      <c r="A285" t="s">
+        <v>243</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C285" t="s">
+        <v>146</v>
+      </c>
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="1:6" ht="15" customHeight="1">
+      <c r="A286" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" ht="15" customHeight="1">
+      <c r="A287" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288" spans="1:6" ht="15" customHeight="1">
+      <c r="A288" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289" spans="1:5" ht="15" customHeight="1">
+      <c r="A289" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E289" s="2"/>
+    </row>
+    <row r="290" spans="1:5" ht="15" customHeight="1">
+      <c r="A290" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E290" s="2"/>
+    </row>
+    <row r="291" spans="1:5" ht="15" customHeight="1">
+      <c r="A291" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E291" s="2"/>
+    </row>
+    <row r="292" spans="1:5" ht="15" customHeight="1">
+      <c r="A292" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E292" s="2"/>
+    </row>
+    <row r="293" spans="1:5" ht="15" customHeight="1">
+      <c r="A293" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E293" s="2"/>
+    </row>
+    <row r="294" spans="1:5" ht="15" customHeight="1">
+      <c r="A294" t="s">
+        <v>252</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C294" t="s">
+        <v>58</v>
+      </c>
+      <c r="E294" s="2"/>
+    </row>
+    <row r="295" spans="1:5" ht="15" customHeight="1">
+      <c r="A295" t="s">
+        <v>252</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C295" t="s">
+        <v>59</v>
+      </c>
+      <c r="E295" s="2"/>
+    </row>
+    <row r="296" spans="1:5" ht="15" customHeight="1">
+      <c r="A296" t="s">
+        <v>252</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E296" s="2"/>
+    </row>
+    <row r="297" spans="1:5" ht="15" customHeight="1">
+      <c r="A297" t="s">
+        <v>253</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E297" s="2"/>
+    </row>
+    <row r="298" spans="1:5" ht="15" customHeight="1">
+      <c r="A298" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E298" s="2"/>
+    </row>
+    <row r="299" spans="1:5" ht="15" customHeight="1">
+      <c r="A299" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E299" s="2"/>
+    </row>
+    <row r="300" spans="1:5" ht="15" customHeight="1">
+      <c r="A300" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E300" s="2"/>
+    </row>
+    <row r="301" spans="1:5" ht="15" customHeight="1">
+      <c r="A301" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E301" s="2"/>
+    </row>
+    <row r="302" spans="1:5" ht="15" customHeight="1">
+      <c r="A302" t="s">
+        <v>254</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C302" t="s">
+        <v>118</v>
+      </c>
+      <c r="E302" s="2"/>
+    </row>
+    <row r="303" spans="1:5" ht="15" customHeight="1">
+      <c r="A303" t="s">
+        <v>254</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C303" t="s">
+        <v>119</v>
+      </c>
+      <c r="E303" s="2"/>
+    </row>
+    <row r="304" spans="1:5" ht="15" customHeight="1">
+      <c r="A304" t="s">
+        <v>254</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C304" t="s">
+        <v>255</v>
+      </c>
+      <c r="E304" s="2"/>
+    </row>
+    <row r="305" spans="1:5" ht="15" customHeight="1">
+      <c r="A305" t="s">
+        <v>254</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C305" t="s">
+        <v>61</v>
+      </c>
+      <c r="E305" s="2"/>
+    </row>
+    <row r="306" spans="1:5" ht="15" customHeight="1">
+      <c r="A306" t="s">
+        <v>254</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="307" spans="1:5" ht="15" customHeight="1">
+      <c r="A307" t="s">
+        <v>256</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C307" t="s">
+        <v>58</v>
+      </c>
+      <c r="E307" s="2"/>
+    </row>
+    <row r="308" spans="1:5" ht="15" customHeight="1">
+      <c r="A308" t="s">
+        <v>256</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C308" t="s">
+        <v>59</v>
+      </c>
+      <c r="E308" s="2"/>
+    </row>
+    <row r="309" spans="1:5" ht="15" customHeight="1">
+      <c r="A309" t="s">
+        <v>256</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="310" spans="1:5" ht="15" customHeight="1">
+      <c r="A310" t="s">
+        <v>256</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="311" spans="1:5" ht="15" customHeight="1">
+      <c r="A311" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C311" t="s">
+        <v>258</v>
+      </c>
+      <c r="E311" s="2"/>
+    </row>
+    <row r="312" spans="1:5" ht="15" customHeight="1">
+      <c r="A312" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C312" t="s">
+        <v>259</v>
+      </c>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313" spans="1:5" ht="15" customHeight="1">
+      <c r="A313" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E313" s="2"/>
+    </row>
+    <row r="314" spans="1:5" ht="15" customHeight="1">
+      <c r="A314" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="315" spans="1:5" ht="15" customHeight="1">
+      <c r="A315" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C315" t="s">
+        <v>261</v>
+      </c>
+      <c r="E315" s="2"/>
+    </row>
+    <row r="316" spans="1:5" ht="15" customHeight="1">
+      <c r="A316" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C316" t="s">
+        <v>123</v>
+      </c>
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317" spans="1:5" ht="15" customHeight="1">
+      <c r="A317" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C317" t="s">
+        <v>124</v>
+      </c>
+      <c r="E317" s="2"/>
+    </row>
+    <row r="318" spans="1:5" ht="15" customHeight="1">
+      <c r="A318" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:5" ht="15" customHeight="1">
+      <c r="A319" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:5" ht="15" customHeight="1">
+      <c r="A320" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321" spans="1:5" ht="15" customHeight="1">
+      <c r="A321" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="1:5" ht="15" customHeight="1">
+      <c r="A322" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323" spans="1:5" ht="15" customHeight="1">
+      <c r="A323" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E323" s="2"/>
+    </row>
+    <row r="324" spans="1:5" ht="15" customHeight="1">
+      <c r="A324" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E324" s="2"/>
+    </row>
+    <row r="325" spans="1:5" ht="15" customHeight="1">
+      <c r="A325" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E325" s="2"/>
+    </row>
+    <row r="326" spans="1:5" ht="15" customHeight="1">
+      <c r="A326" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C326" t="s">
+        <v>267</v>
+      </c>
+      <c r="E326" s="2"/>
+    </row>
+    <row r="327" spans="1:5" ht="15" customHeight="1">
+      <c r="A327" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C327" t="s">
+        <v>268</v>
+      </c>
+      <c r="E327" s="2"/>
+    </row>
+    <row r="328" spans="1:5" ht="15" customHeight="1">
+      <c r="A328" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C328" t="s">
+        <v>124</v>
+      </c>
+      <c r="E328" s="2"/>
+    </row>
+    <row r="329" spans="1:5" ht="15" customHeight="1">
+      <c r="A329" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E329" s="2"/>
+    </row>
+    <row r="330" spans="1:5" ht="15" customHeight="1">
+      <c r="A330" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E330" s="2"/>
+    </row>
+    <row r="331" spans="1:5" ht="15" customHeight="1">
+      <c r="A331" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C331" t="s">
+        <v>270</v>
+      </c>
+      <c r="E331" s="2"/>
+    </row>
+    <row r="332" spans="1:5" ht="15" customHeight="1">
+      <c r="A332" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C332" t="s">
+        <v>271</v>
+      </c>
+      <c r="E332" s="2"/>
+    </row>
+    <row r="333" spans="1:5" ht="15" customHeight="1">
+      <c r="A333" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C333" t="s">
+        <v>272</v>
+      </c>
+      <c r="E333" s="2"/>
+    </row>
+    <row r="334" spans="1:5" ht="15" customHeight="1">
+      <c r="A334" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C334" t="s">
+        <v>273</v>
+      </c>
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:5" ht="15" customHeight="1">
+      <c r="A335" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C335" t="s">
+        <v>274</v>
+      </c>
+      <c r="E335" s="2"/>
+    </row>
+    <row r="336" spans="1:5" ht="15" customHeight="1">
+      <c r="A336" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C336" t="s">
+        <v>275</v>
+      </c>
+      <c r="E336" s="2"/>
+    </row>
+    <row r="337" spans="1:5" ht="15" customHeight="1">
+      <c r="A337" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C337" t="s">
+        <v>75</v>
+      </c>
+      <c r="E337" s="2"/>
+    </row>
+    <row r="338" spans="1:5" ht="15" customHeight="1">
+      <c r="A338" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C338" t="s">
+        <v>276</v>
+      </c>
+      <c r="E338" s="2"/>
+    </row>
+    <row r="339" spans="1:5" ht="15" customHeight="1">
+      <c r="A339" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C339" t="s">
+        <v>270</v>
+      </c>
+      <c r="E339" s="2"/>
+    </row>
+    <row r="340" spans="1:5" ht="15" customHeight="1">
+      <c r="A340" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C340" t="s">
+        <v>271</v>
+      </c>
+      <c r="E340" s="2"/>
+    </row>
+    <row r="341" spans="1:5" ht="15" customHeight="1">
+      <c r="A341" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C341" t="s">
+        <v>272</v>
+      </c>
+      <c r="E341" s="2"/>
+    </row>
+    <row r="342" spans="1:5" ht="15" customHeight="1">
+      <c r="A342" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C342" t="s">
+        <v>273</v>
+      </c>
+      <c r="E342" s="2"/>
+    </row>
+    <row r="343" spans="1:5" ht="15" customHeight="1">
+      <c r="A343" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C343" t="s">
+        <v>274</v>
+      </c>
+      <c r="E343" s="2"/>
+    </row>
+    <row r="344" spans="1:5" ht="15" customHeight="1">
+      <c r="A344" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C344" t="s">
+        <v>275</v>
+      </c>
+      <c r="E344" s="2"/>
+    </row>
+    <row r="345" spans="1:5" ht="15" customHeight="1">
+      <c r="A345" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C345" t="s">
+        <v>75</v>
+      </c>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346" spans="1:5" ht="15" customHeight="1">
+      <c r="A346" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C346" t="s">
+        <v>278</v>
+      </c>
+      <c r="E346" s="2"/>
+    </row>
+    <row r="347" spans="1:5" ht="15" customHeight="1">
+      <c r="A347" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C347" t="s">
+        <v>276</v>
+      </c>
+      <c r="E347" s="2"/>
+    </row>
+    <row r="348" spans="1:5" ht="15" customHeight="1">
+      <c r="A348" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C348" t="s">
+        <v>58</v>
+      </c>
+      <c r="E348" s="2"/>
+    </row>
+    <row r="349" spans="1:5" ht="15" customHeight="1">
+      <c r="A349" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C349" t="s">
+        <v>59</v>
+      </c>
+      <c r="E349" s="2"/>
+    </row>
+    <row r="350" spans="1:5" ht="15" customHeight="1">
+      <c r="A350" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C350" t="s">
+        <v>280</v>
+      </c>
+      <c r="E350" s="2"/>
+    </row>
+    <row r="351" spans="1:5" ht="15" customHeight="1">
+      <c r="A351" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E351" s="2"/>
+    </row>
+    <row r="352" spans="1:5" ht="15" customHeight="1">
+      <c r="A352" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E352" s="2"/>
+    </row>
+    <row r="353" spans="1:5" ht="15" customHeight="1">
+      <c r="A353" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E353" s="8"/>
+    </row>
+    <row r="354" spans="1:5" ht="15" customHeight="1">
+      <c r="A354" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C354" t="s">
+        <v>282</v>
+      </c>
+      <c r="E354" s="8"/>
+    </row>
+    <row r="355" spans="1:5" ht="15" customHeight="1">
+      <c r="A355" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E355" s="8"/>
+    </row>
+    <row r="356" spans="1:5" ht="15" customHeight="1">
+      <c r="A356" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E356" s="2"/>
+    </row>
+    <row r="357" spans="1:5" ht="15" customHeight="1">
+      <c r="A357" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E357" s="2"/>
+    </row>
+    <row r="358" spans="1:5" ht="15" customHeight="1">
+      <c r="A358" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C358" t="s">
+        <v>192</v>
+      </c>
+      <c r="E358" s="2"/>
+    </row>
+    <row r="359" spans="1:5" ht="15" customHeight="1">
+      <c r="A359" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C359" t="s">
+        <v>193</v>
+      </c>
+      <c r="E359" s="2"/>
+    </row>
+    <row r="360" spans="1:5" ht="15" customHeight="1">
+      <c r="A360" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E360" s="2"/>
+    </row>
+    <row r="361" spans="1:5" ht="15" customHeight="1">
+      <c r="A361" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E361" s="2"/>
+    </row>
+    <row r="362" spans="1:5" ht="15" customHeight="1">
+      <c r="A362" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E362" s="2"/>
+    </row>
+    <row r="363" spans="1:5" ht="15" customHeight="1">
+      <c r="A363" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E363" s="2"/>
+    </row>
+    <row r="364" spans="1:5" ht="15" customHeight="1">
+      <c r="A364" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E364" s="2"/>
+    </row>
+    <row r="365" spans="1:5" ht="15" customHeight="1">
+      <c r="A365" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E365" s="2"/>
+    </row>
+    <row r="366" spans="1:5" ht="15" customHeight="1">
+      <c r="A366" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E366" s="2"/>
+    </row>
+    <row r="367" spans="1:5" ht="15" customHeight="1">
+      <c r="A367" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E367" s="2"/>
+    </row>
+    <row r="368" spans="1:5" ht="15" customHeight="1">
+      <c r="A368" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E368" s="2"/>
+    </row>
+    <row r="369" spans="1:5" ht="15" customHeight="1">
+      <c r="A369" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E369" s="2"/>
+    </row>
+    <row r="370" spans="1:5" ht="15" customHeight="1">
+      <c r="A370" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E370" s="2"/>
+    </row>
+    <row r="371" spans="1:5" ht="15" customHeight="1">
+      <c r="A371" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E371" s="2"/>
+    </row>
+    <row r="372" spans="1:5" ht="15" customHeight="1">
+      <c r="A372" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E372" s="2"/>
+    </row>
+    <row r="373" spans="1:5" ht="15" customHeight="1">
+      <c r="A373" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E373" s="2"/>
+    </row>
+    <row r="374" spans="1:5" ht="15" customHeight="1">
+      <c r="A374" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E374" s="2"/>
+    </row>
+    <row r="375" spans="1:5" ht="15" customHeight="1">
+      <c r="A375" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E375" s="2"/>
+    </row>
+    <row r="376" spans="1:5" ht="15" customHeight="1">
+      <c r="A376" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E376" s="2"/>
+    </row>
+    <row r="377" spans="1:5" ht="15" customHeight="1">
+      <c r="A377" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E377" s="2"/>
+    </row>
+    <row r="378" spans="1:5" ht="15" customHeight="1">
+      <c r="A378" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E378" s="2"/>
+    </row>
+    <row r="379" spans="1:5" ht="15" customHeight="1">
+      <c r="A379" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E379" s="2"/>
+    </row>
+    <row r="380" spans="1:5" ht="15" customHeight="1">
+      <c r="A380" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E380" s="2"/>
+    </row>
+    <row r="381" spans="1:5" ht="15" customHeight="1">
+      <c r="A381" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E381" s="2"/>
+    </row>
+    <row r="382" spans="1:5" ht="15" customHeight="1">
+      <c r="A382" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E382" s="2"/>
+    </row>
+    <row r="383" spans="1:5" ht="15" customHeight="1">
+      <c r="A383" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E383" s="2"/>
+    </row>
+    <row r="384" spans="1:5" ht="15" customHeight="1">
+      <c r="A384" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E384" s="2"/>
+    </row>
+    <row r="385" spans="1:5" ht="15" customHeight="1">
+      <c r="A385" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E385" s="2"/>
+    </row>
+    <row r="386" spans="1:5" ht="15" customHeight="1">
+      <c r="A386" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E386" s="2"/>
+    </row>
+    <row r="387" spans="1:5" ht="15" customHeight="1">
+      <c r="A387" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E387" s="2"/>
+    </row>
+    <row r="388" spans="1:5" ht="15" customHeight="1">
+      <c r="A388" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E388" s="2"/>
+    </row>
+    <row r="389" spans="1:5" ht="15" customHeight="1">
+      <c r="A389" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E389" s="2"/>
+    </row>
+    <row r="390" spans="1:5" ht="15" customHeight="1">
+      <c r="A390" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E390" s="2"/>
+    </row>
+    <row r="391" spans="1:5" ht="15" customHeight="1">
+      <c r="A391" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E391" s="2"/>
+    </row>
+    <row r="392" spans="1:5" ht="15" customHeight="1">
+      <c r="A392" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E392" s="2"/>
+    </row>
+    <row r="393" spans="1:5" ht="15" customHeight="1">
+      <c r="A393" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E393" s="2"/>
+    </row>
+    <row r="394" spans="1:5" ht="15" customHeight="1">
+      <c r="A394" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E394" s="2"/>
+    </row>
+    <row r="395" spans="1:5" ht="15" customHeight="1">
+      <c r="A395" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E395" s="2"/>
+    </row>
+    <row r="396" spans="1:5" ht="15" customHeight="1">
+      <c r="A396" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E396" s="2"/>
+    </row>
+    <row r="397" spans="1:5" ht="15" customHeight="1">
+      <c r="A397" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E397" s="2"/>
+    </row>
+    <row r="398" spans="1:5" ht="15" customHeight="1">
+      <c r="A398" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E398" s="2"/>
+    </row>
+    <row r="399" spans="1:5" ht="15" customHeight="1">
+      <c r="A399" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E399" s="2"/>
+    </row>
+    <row r="400" spans="1:5" ht="15" customHeight="1">
+      <c r="A400" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E400" s="2"/>
+    </row>
+    <row r="401" spans="1:5" ht="15" customHeight="1">
+      <c r="A401" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E401" s="2"/>
+    </row>
+    <row r="402" spans="1:5" ht="15" customHeight="1">
+      <c r="A402" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E402" s="2"/>
+    </row>
+    <row r="403" spans="1:5" ht="15" customHeight="1">
+      <c r="A403" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E403" s="2"/>
+    </row>
+    <row r="404" spans="1:5" ht="15" customHeight="1">
+      <c r="A404" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E404" s="2"/>
+    </row>
+    <row r="405" spans="1:5" ht="15" customHeight="1">
+      <c r="A405" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="1:5" ht="15" customHeight="1">
+      <c r="A406" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E406" s="2"/>
+    </row>
+    <row r="407" spans="1:5" ht="15" customHeight="1">
+      <c r="A407" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E407" s="2"/>
+    </row>
+    <row r="408" spans="1:5" ht="15" customHeight="1">
+      <c r="A408" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E408" s="2"/>
+    </row>
+    <row r="409" spans="1:5" ht="15" customHeight="1">
+      <c r="A409" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E409" s="2"/>
+    </row>
+    <row r="410" spans="1:5" ht="15" customHeight="1">
+      <c r="A410" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E410" s="2"/>
+    </row>
+    <row r="411" spans="1:5" ht="15" customHeight="1">
+      <c r="A411" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E411" s="2"/>
+    </row>
+    <row r="412" spans="1:5" ht="15" customHeight="1">
+      <c r="A412" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E412" s="2"/>
+    </row>
+    <row r="413" spans="1:5" ht="15" customHeight="1">
+      <c r="A413" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E413" s="2"/>
+    </row>
+    <row r="414" spans="1:5" ht="15" customHeight="1">
+      <c r="A414" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E414" s="2"/>
+    </row>
+    <row r="415" spans="1:5" ht="15" customHeight="1">
+      <c r="A415" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E415" s="2"/>
+    </row>
+    <row r="416" spans="1:5" ht="15" customHeight="1">
+      <c r="A416" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E416" s="2"/>
+    </row>
+    <row r="417" spans="1:5" ht="15" customHeight="1">
+      <c r="A417" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C417" t="s">
+        <v>61</v>
+      </c>
+      <c r="E417" s="2"/>
+    </row>
+    <row r="418" spans="1:5" ht="15" customHeight="1">
+      <c r="A418" t="s">
+        <v>302</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C418" t="s">
+        <v>95</v>
+      </c>
+      <c r="E418" s="2"/>
+    </row>
+    <row r="419" spans="1:5" ht="15" customHeight="1">
+      <c r="A419" t="s">
+        <v>302</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C419" t="s">
+        <v>200</v>
+      </c>
+      <c r="E419" s="2"/>
+    </row>
+    <row r="420" spans="1:5" ht="15" customHeight="1">
+      <c r="A420" t="s">
+        <v>302</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C420" t="s">
+        <v>201</v>
+      </c>
+      <c r="E420" s="2"/>
+    </row>
+    <row r="421" spans="1:5" ht="15" customHeight="1">
+      <c r="A421" t="s">
+        <v>302</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C421" t="s">
+        <v>202</v>
+      </c>
+      <c r="E421" s="2"/>
+    </row>
+    <row r="422" spans="1:5" ht="15" customHeight="1">
+      <c r="A422" t="s">
+        <v>302</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C422" t="s">
+        <v>203</v>
+      </c>
+      <c r="E422" s="2"/>
+    </row>
+    <row r="423" spans="1:5" ht="15" customHeight="1">
+      <c r="A423" t="s">
+        <v>302</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C423" t="s">
+        <v>204</v>
+      </c>
+      <c r="E423" s="2"/>
+    </row>
+    <row r="424" spans="1:5" ht="15" customHeight="1">
+      <c r="A424" t="s">
+        <v>302</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C424" t="s">
+        <v>205</v>
+      </c>
+      <c r="E424" s="2"/>
+    </row>
+    <row r="425" spans="1:5" ht="15" customHeight="1">
+      <c r="A425" t="s">
+        <v>302</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C425" t="s">
+        <v>206</v>
+      </c>
+      <c r="E425" s="2"/>
+    </row>
+    <row r="426" spans="1:5" ht="15" customHeight="1">
+      <c r="A426" t="s">
+        <v>302</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C426" t="s">
+        <v>207</v>
+      </c>
+      <c r="E426" s="2"/>
+    </row>
+    <row r="427" spans="1:5" ht="15" customHeight="1">
+      <c r="A427" t="s">
+        <v>302</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C427" t="s">
+        <v>208</v>
+      </c>
+      <c r="E427" s="2"/>
+    </row>
+    <row r="428" spans="1:5" ht="15" customHeight="1">
+      <c r="A428" t="s">
+        <v>302</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C428" t="s">
+        <v>209</v>
+      </c>
+      <c r="E428" s="2"/>
+    </row>
+    <row r="429" spans="1:5" ht="15" customHeight="1">
+      <c r="A429" t="s">
+        <v>302</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C429" t="s">
+        <v>210</v>
+      </c>
+      <c r="E429" s="2"/>
+    </row>
+    <row r="430" spans="1:5" ht="15" customHeight="1">
+      <c r="A430" t="s">
+        <v>302</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C430" t="s">
+        <v>211</v>
+      </c>
+      <c r="E430" s="2"/>
+    </row>
+    <row r="431" spans="1:5" ht="15" customHeight="1">
+      <c r="A431" t="s">
+        <v>302</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C431" t="s">
+        <v>212</v>
+      </c>
+      <c r="E431" s="2"/>
+    </row>
+    <row r="432" spans="1:5" ht="15" customHeight="1">
+      <c r="A432" t="s">
+        <v>302</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C432" t="s">
+        <v>75</v>
+      </c>
+      <c r="E432" s="2"/>
+    </row>
+    <row r="433" spans="1:5" ht="15" customHeight="1">
+      <c r="A433" t="s">
+        <v>302</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C433" t="s">
+        <v>61</v>
+      </c>
+      <c r="E433" s="2"/>
+    </row>
+    <row r="434" spans="1:5" ht="15" customHeight="1">
+      <c r="A434" t="s">
+        <v>303</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C434" t="s">
+        <v>304</v>
+      </c>
+      <c r="E434" s="2"/>
+    </row>
+    <row r="435" spans="1:5" ht="15" customHeight="1">
+      <c r="A435" t="s">
+        <v>303</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C435" t="s">
+        <v>233</v>
+      </c>
+      <c r="E435" s="2"/>
+    </row>
+    <row r="436" spans="1:5" ht="15" customHeight="1">
+      <c r="A436" t="s">
+        <v>303</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C436" t="s">
+        <v>234</v>
+      </c>
+      <c r="E436" s="2"/>
+    </row>
+    <row r="437" spans="1:5" ht="15" customHeight="1">
+      <c r="A437" t="s">
+        <v>303</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C437" t="s">
+        <v>235</v>
+      </c>
+      <c r="E437" s="2"/>
+    </row>
+    <row r="438" spans="1:5" ht="15" customHeight="1">
+      <c r="A438" t="s">
+        <v>303</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C438" t="s">
+        <v>229</v>
+      </c>
+      <c r="E438" s="2"/>
+    </row>
+    <row r="439" spans="1:5" ht="15" customHeight="1">
+      <c r="A439" t="s">
+        <v>303</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C439" t="s">
+        <v>61</v>
+      </c>
+      <c r="E439" s="2"/>
+    </row>
+    <row r="440" spans="1:5" ht="15" customHeight="1">
+      <c r="A440" t="s">
+        <v>305</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C440" t="s">
+        <v>306</v>
+      </c>
+      <c r="E440" s="2"/>
+    </row>
+    <row r="441" spans="1:5" ht="15" customHeight="1">
+      <c r="A441" t="s">
+        <v>305</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C441" t="s">
+        <v>307</v>
+      </c>
+      <c r="E441" s="2"/>
+    </row>
+    <row r="442" spans="1:5" ht="15" customHeight="1">
+      <c r="A442" t="s">
+        <v>305</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C442" t="s">
+        <v>239</v>
+      </c>
+      <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="1:5" ht="15" customHeight="1">
+      <c r="A443" t="s">
+        <v>305</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C443" t="s">
+        <v>240</v>
+      </c>
+      <c r="E443" s="2"/>
+    </row>
+    <row r="444" spans="1:5" ht="15" customHeight="1">
+      <c r="A444" t="s">
+        <v>305</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C444" t="s">
+        <v>241</v>
+      </c>
+      <c r="E444" s="2"/>
+    </row>
+    <row r="445" spans="1:5" ht="15" customHeight="1">
+      <c r="A445" t="s">
+        <v>305</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C445" t="s">
+        <v>75</v>
+      </c>
+      <c r="E445" s="2"/>
+    </row>
+    <row r="446" spans="1:5" ht="15" customHeight="1">
+      <c r="A446" t="s">
+        <v>305</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C446" t="s">
+        <v>61</v>
+      </c>
+      <c r="E446" s="2"/>
+    </row>
+    <row r="447" spans="1:5" ht="15" customHeight="1">
+      <c r="A447" t="s">
+        <v>305</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C447" t="s">
+        <v>116</v>
+      </c>
+      <c r="E447" s="2"/>
+    </row>
+    <row r="448" spans="1:5" ht="15" customHeight="1">
+      <c r="A448" t="s">
+        <v>308</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C448" t="s">
+        <v>309</v>
+      </c>
+      <c r="E448" s="2"/>
+    </row>
+    <row r="449" spans="1:5" ht="15" customHeight="1">
+      <c r="A449" t="s">
+        <v>308</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C449" t="s">
+        <v>310</v>
+      </c>
+      <c r="E449" s="2"/>
+    </row>
+    <row r="450" spans="1:5" ht="15" customHeight="1">
+      <c r="A450" t="s">
+        <v>308</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C450" t="s">
+        <v>61</v>
+      </c>
+      <c r="E450" s="2"/>
+    </row>
+    <row r="451" spans="1:5" ht="15" customHeight="1">
+      <c r="A451" t="s">
+        <v>311</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C451" t="s">
+        <v>119</v>
+      </c>
+      <c r="E451" s="2"/>
+    </row>
+    <row r="452" spans="1:5" ht="15" customHeight="1">
+      <c r="A452" t="s">
+        <v>311</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C452" t="s">
+        <v>118</v>
+      </c>
+      <c r="E452" s="2"/>
+    </row>
+    <row r="453" spans="1:5" ht="15" customHeight="1">
+      <c r="A453" t="s">
+        <v>311</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C453" t="s">
+        <v>312</v>
+      </c>
+      <c r="E453" s="2"/>
+    </row>
+    <row r="454" spans="1:5" ht="15" customHeight="1">
+      <c r="A454" t="s">
+        <v>311</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C454" t="s">
+        <v>61</v>
+      </c>
+      <c r="E454" s="2"/>
+    </row>
+    <row r="455" spans="1:5" ht="15" customHeight="1">
+      <c r="A455" t="s">
+        <v>313</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C455" t="s">
+        <v>314</v>
+      </c>
+      <c r="E455" s="2"/>
+    </row>
+    <row r="456" spans="1:5" ht="15" customHeight="1">
+      <c r="A456" t="s">
+        <v>313</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C456" t="s">
+        <v>315</v>
+      </c>
+      <c r="E456" s="2"/>
+    </row>
+    <row r="457" spans="1:5" ht="15" customHeight="1">
+      <c r="A457" t="s">
+        <v>313</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C457" t="s">
+        <v>316</v>
+      </c>
+      <c r="E457" s="2"/>
+    </row>
+    <row r="458" spans="1:5" ht="15" customHeight="1">
+      <c r="A458" t="s">
+        <v>313</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C458" t="s">
+        <v>59</v>
+      </c>
+      <c r="E458" s="2"/>
+    </row>
+    <row r="459" spans="1:5" ht="15" customHeight="1">
+      <c r="A459" t="s">
+        <v>313</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C459" t="s">
+        <v>61</v>
+      </c>
+      <c r="E459" s="2"/>
+    </row>
+    <row r="460" spans="1:5" ht="15" customHeight="1">
+      <c r="A460" t="s">
+        <v>313</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C460" t="s">
+        <v>116</v>
+      </c>
+      <c r="E460" s="2"/>
+    </row>
+    <row r="461" spans="1:5" ht="15" customHeight="1">
+      <c r="A461" t="s">
+        <v>317</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C461" t="s">
+        <v>318</v>
+      </c>
+      <c r="E461" s="2"/>
+    </row>
+    <row r="462" spans="1:5" ht="15" customHeight="1">
+      <c r="A462" t="s">
+        <v>317</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C462" t="s">
+        <v>319</v>
+      </c>
+      <c r="E462" s="2"/>
+    </row>
+    <row r="463" spans="1:5" ht="15" customHeight="1">
+      <c r="A463" t="s">
+        <v>317</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C463" t="s">
+        <v>320</v>
+      </c>
+      <c r="E463" s="2"/>
+    </row>
+    <row r="464" spans="1:5" ht="15" customHeight="1">
+      <c r="A464" t="s">
+        <v>317</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C464" t="s">
+        <v>321</v>
+      </c>
+      <c r="E464" s="2"/>
+    </row>
+    <row r="465" spans="1:5" ht="15" customHeight="1">
+      <c r="A465" t="s">
+        <v>317</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C465" t="s">
+        <v>75</v>
+      </c>
+      <c r="E465" s="2"/>
+    </row>
+    <row r="466" spans="1:5" ht="15" customHeight="1">
+      <c r="A466" t="s">
+        <v>317</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C466" t="s">
+        <v>61</v>
+      </c>
+      <c r="E466" s="2"/>
+    </row>
+    <row r="467" spans="1:5" ht="15" customHeight="1">
+      <c r="A467" t="s">
+        <v>322</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C467" t="s">
+        <v>323</v>
+      </c>
+      <c r="E467" s="2"/>
+    </row>
+    <row r="468" spans="1:5" ht="15" customHeight="1">
+      <c r="A468" t="s">
+        <v>322</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C468" t="s">
+        <v>324</v>
+      </c>
+      <c r="E468" s="2"/>
+    </row>
+    <row r="469" spans="1:5" ht="15" customHeight="1">
+      <c r="A469" t="s">
+        <v>322</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C469" t="s">
+        <v>325</v>
+      </c>
+      <c r="E469" s="2"/>
+    </row>
+    <row r="470" spans="1:5" ht="15" customHeight="1">
+      <c r="A470" t="s">
+        <v>322</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C470" t="s">
+        <v>326</v>
+      </c>
+      <c r="E470" s="2"/>
+    </row>
+    <row r="471" spans="1:5" ht="15" customHeight="1">
+      <c r="A471" t="s">
+        <v>322</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C471" t="s">
+        <v>327</v>
+      </c>
+      <c r="E471" s="2"/>
+    </row>
+    <row r="472" spans="1:5" ht="15" customHeight="1">
+      <c r="A472" t="s">
+        <v>322</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C472" t="s">
+        <v>61</v>
+      </c>
+      <c r="E472" s="2"/>
+    </row>
+    <row r="473" spans="1:5" ht="15" customHeight="1">
+      <c r="A473" t="s">
+        <v>322</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C473" t="s">
+        <v>116</v>
+      </c>
+      <c r="E473" s="2"/>
+    </row>
+    <row r="474" spans="1:5" ht="15" customHeight="1">
+      <c r="A474" t="s">
+        <v>328</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C474" t="s">
+        <v>318</v>
+      </c>
+      <c r="E474" s="2"/>
+    </row>
+    <row r="475" spans="1:5" ht="15" customHeight="1">
+      <c r="A475" t="s">
+        <v>328</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C475" t="s">
+        <v>329</v>
+      </c>
+      <c r="E475" s="2"/>
+    </row>
+    <row r="476" spans="1:5" ht="15" customHeight="1">
+      <c r="A476" t="s">
+        <v>328</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C476" t="s">
+        <v>330</v>
+      </c>
+      <c r="E476" s="2"/>
+    </row>
+    <row r="477" spans="1:5" ht="15" customHeight="1">
+      <c r="A477" t="s">
+        <v>328</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C477" t="s">
+        <v>61</v>
+      </c>
+      <c r="E477" s="2"/>
+    </row>
+    <row r="478" spans="1:5" ht="15" customHeight="1">
+      <c r="A478" t="s">
+        <v>328</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C478" t="s">
+        <v>116</v>
+      </c>
+      <c r="E478" s="2"/>
+    </row>
+    <row r="479" spans="1:5" ht="15" customHeight="1">
+      <c r="A479" t="s">
+        <v>331</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C479" t="s">
+        <v>140</v>
+      </c>
+      <c r="E479" s="2"/>
+    </row>
+    <row r="480" spans="1:5" ht="15" customHeight="1">
+      <c r="A480" t="s">
+        <v>331</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C480" t="s">
+        <v>141</v>
+      </c>
+      <c r="E480" s="2"/>
+    </row>
+    <row r="481" spans="1:5" ht="15" customHeight="1">
+      <c r="A481" t="s">
+        <v>332</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C481" t="s">
+        <v>140</v>
+      </c>
+      <c r="E481" s="2"/>
+    </row>
+    <row r="482" spans="1:5" ht="15" customHeight="1">
+      <c r="A482" t="s">
+        <v>332</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C482" t="s">
+        <v>141</v>
+      </c>
+      <c r="E482" s="2"/>
+    </row>
+    <row r="483" spans="1:5" ht="15" customHeight="1">
+      <c r="A483" t="s">
+        <v>332</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C483" t="s">
+        <v>333</v>
+      </c>
+      <c r="E483" s="2"/>
+    </row>
+    <row r="484" spans="1:5" ht="15" customHeight="1">
+      <c r="A484" t="s">
+        <v>334</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C484" t="s">
+        <v>58</v>
+      </c>
+      <c r="E484" s="2"/>
+    </row>
+    <row r="485" spans="1:5" ht="15" customHeight="1">
+      <c r="A485" t="s">
+        <v>334</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C485" t="s">
+        <v>59</v>
+      </c>
+      <c r="E485" s="2"/>
+    </row>
+    <row r="486" spans="1:5" ht="15" customHeight="1">
+      <c r="A486" t="s">
+        <v>334</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C486" t="s">
+        <v>335</v>
+      </c>
+      <c r="E486" s="2"/>
+    </row>
+    <row r="487" spans="1:5" ht="15" customHeight="1">
+      <c r="A487" t="s">
+        <v>334</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C487" t="s">
+        <v>143</v>
+      </c>
+      <c r="E487" s="2"/>
+    </row>
+    <row r="488" spans="1:5" ht="15" customHeight="1">
+      <c r="A488" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E488" s="2"/>
+    </row>
+    <row r="489" spans="1:5" ht="15" customHeight="1">
+      <c r="A489" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E489" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20140513</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/config/tables/maleClients/forms/partner6Month/partner6Month.xlsx
+++ b/app/config/tables/maleClients/forms/partner6Month/partner6Month.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31980" windowHeight="25580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="440">
   <si>
     <t>type</t>
   </si>
@@ -1341,6 +1341,36 @@
   </si>
   <si>
     <t>a16</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>selected(data('unigold'), data('determine'))</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>selected(data('unigold'),'a1')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selected(data('unigold'),'a0')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>selected(data('advise_second'),'a1')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('influences'),'a6') </t>
   </si>
 </sst>
 </file>
@@ -1435,8 +1465,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1622,7 +1660,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1662,6 +1700,10 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1701,6 +1743,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2035,165 +2081,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="7"/>
-    <col min="2" max="2" width="26.6640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="66" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="11" customWidth="1"/>
-    <col min="7" max="8" width="13.83203125" style="11"/>
-    <col min="9" max="9" width="13.83203125" style="25"/>
-    <col min="10" max="16" width="13.83203125" style="11"/>
-    <col min="17" max="16384" width="13.83203125" style="7"/>
+    <col min="1" max="2" width="13.83203125" style="7"/>
+    <col min="3" max="3" width="26.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="22" customWidth="1"/>
+    <col min="6" max="6" width="66" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" style="11"/>
+    <col min="10" max="10" width="13.83203125" style="25"/>
+    <col min="11" max="17" width="13.83203125" style="11"/>
+    <col min="18" max="16384" width="13.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
+    <row r="1" spans="1:18" ht="30" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" customFormat="1" ht="12">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:18" customFormat="1" ht="12">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" s="14" customFormat="1" ht="12">
-      <c r="B3" s="17" t="s">
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" s="14" customFormat="1" ht="12">
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:17" s="14" customFormat="1" ht="12">
-      <c r="B4" s="17" t="s">
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:18" s="14" customFormat="1" ht="12">
+      <c r="C4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" ht="25">
-      <c r="B5" s="17" t="s">
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:18" s="14" customFormat="1" ht="25">
+      <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="30" t="b">
+      <c r="J5" s="30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="195" customHeight="1">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:18" ht="195" customHeight="1">
+      <c r="C6" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -2201,25 +2249,25 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" ht="195" customHeight="1">
-      <c r="B7" s="19" t="s">
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" ht="195" customHeight="1">
+      <c r="C7" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -2227,23 +2275,23 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="18" t="s">
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -2251,25 +2299,25 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" ht="30">
-      <c r="B9" s="18" t="s">
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="30">
+      <c r="C9" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -2277,23 +2325,23 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" ht="30">
-      <c r="B10" s="18" t="s">
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" ht="30">
+      <c r="C10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -2301,25 +2349,25 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="45">
-      <c r="B11" s="18" t="s">
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" ht="45">
+      <c r="C11" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -2327,25 +2375,25 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="B12" s="18" t="s">
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="C12" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -2353,25 +2401,25 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" ht="30">
-      <c r="B13" s="18" t="s">
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:18" ht="30">
+      <c r="C13" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -2379,27 +2427,27 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" ht="30">
-      <c r="B14" s="18" t="s">
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" ht="30">
+      <c r="C14" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -2407,22 +2455,22 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
-      <c r="B15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>341</v>
-      </c>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:18" ht="25">
+      <c r="A15" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -2430,49 +2478,40 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="B16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.75" customHeight="1">
+      <c r="C16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="13"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -2480,51 +2519,49 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="2:18" ht="30">
-      <c r="B18" s="18" t="s">
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="C18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="C19" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="D19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
@@ -2532,25 +2569,25 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="18" t="s">
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" ht="30">
+      <c r="C20" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="12"/>
+      <c r="D20" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
@@ -2558,25 +2595,25 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="18" t="s">
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="C21" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="E21" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
@@ -2584,25 +2621,25 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="18" t="s">
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="C22" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="12"/>
+      <c r="E22" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -2610,421 +2647,381 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="18" t="s">
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="C23" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="C24" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="C25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="22" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="2:18" customFormat="1" ht="48">
-      <c r="B24" s="19" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:19" customFormat="1" ht="48">
+      <c r="C26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="E26" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F26" t="s">
         <v>349</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G26" t="s">
         <v>336</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="2:18" customFormat="1" ht="12">
-      <c r="B25" s="19" t="s">
+      <c r="J26" s="34"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" customFormat="1" ht="12">
+      <c r="C27" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="E27" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F27" t="s">
         <v>337</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="2:18" customFormat="1" ht="12">
-      <c r="B26" s="19" t="s">
+      <c r="J27" s="34"/>
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" customFormat="1" ht="12">
+      <c r="C28" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D28" t="s">
         <v>331</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="E28" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F28" t="s">
         <v>353</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="2:18" customFormat="1" ht="12">
-      <c r="B27" s="19" t="s">
+      <c r="J28" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" customFormat="1" ht="36">
+      <c r="A29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="E29" s="22"/>
+      <c r="J29" s="34"/>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" customFormat="1" ht="12">
+      <c r="C30" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D30" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="E30" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F30" t="s">
         <v>338</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="2:18" customFormat="1" ht="12">
-      <c r="B28" s="19" t="s">
+      <c r="J30" s="34"/>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" customFormat="1" ht="48">
+      <c r="A31" t="s">
+        <v>431</v>
+      </c>
+      <c r="B31" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="E31" s="22"/>
+      <c r="J31" s="34"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" customFormat="1" ht="24">
+      <c r="A32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B32" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="E32" s="22"/>
+      <c r="J32" s="34"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" customFormat="1" ht="12">
+      <c r="C33" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="E33" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F33" t="s">
         <v>350</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="2:18" customFormat="1" ht="12">
-      <c r="B29" s="19" t="s">
+      <c r="J33" s="34"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" customFormat="1" ht="12">
+      <c r="A34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="E34" s="22"/>
+      <c r="J34" s="34"/>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19" customFormat="1" ht="24">
+      <c r="A35" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="E35" s="22"/>
+      <c r="J35" s="34"/>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="1:19" customFormat="1" ht="12">
+      <c r="C36" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="E36" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F36" t="s">
         <v>351</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="2:18" customFormat="1" ht="12">
-      <c r="B30" s="19" t="s">
+      <c r="J36" s="34"/>
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="1:19" customFormat="1" ht="12">
+      <c r="A37" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="E37" s="22"/>
+      <c r="J37" s="34"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19" customFormat="1" ht="12">
+      <c r="A38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="E38" s="22"/>
+      <c r="J38" s="34"/>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" customFormat="1" ht="12">
+      <c r="C39" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="E39" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F39" t="s">
         <v>352</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="2:18" customFormat="1" ht="24">
-      <c r="B31" s="19" t="s">
+      <c r="J39" s="34"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" customFormat="1" ht="24">
+      <c r="C40" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D40" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="E40" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F40" t="s">
         <v>339</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G40" t="s">
         <v>340</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="R31" s="7"/>
-    </row>
-    <row r="32" spans="2:18" customFormat="1" ht="12">
-      <c r="B32" s="19" t="s">
+      <c r="J40" s="34"/>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" customFormat="1" ht="12">
+      <c r="A41" t="s">
+        <v>433</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="E41" s="22"/>
+      <c r="J41" s="34"/>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="1:19" customFormat="1" ht="12">
+      <c r="A42" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="E42" s="22"/>
+      <c r="J42" s="34"/>
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19" customFormat="1" ht="12">
+      <c r="C43" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D43" t="s">
         <v>334</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="E43" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F43" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="R32" s="7"/>
-    </row>
-    <row r="33" spans="2:17">
-      <c r="B33" s="19" t="s">
+      <c r="J43" s="34"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="C44" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="E44" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="9"/>
-    </row>
-    <row r="34" spans="2:17">
-      <c r="B34" s="19" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="9"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="C45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="22" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="9"/>
-    </row>
-    <row r="35" spans="2:17" ht="30">
-      <c r="B35" s="20" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="1:19" ht="30">
+      <c r="C46" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="E46" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-    </row>
-    <row r="36" spans="2:17">
-      <c r="B36" s="21"/>
-      <c r="C36" s="6"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-    </row>
-    <row r="37" spans="2:17">
-      <c r="B37" s="21"/>
-      <c r="C37" s="6"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-    </row>
-    <row r="38" spans="2:17">
-      <c r="B38" s="21"/>
-      <c r="C38" s="6"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-    </row>
-    <row r="39" spans="2:17">
-      <c r="B39" s="21"/>
-      <c r="C39" s="6"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-    </row>
-    <row r="40" spans="2:17">
-      <c r="B40" s="21"/>
-      <c r="C40" s="6"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-    </row>
-    <row r="41" spans="2:17">
-      <c r="B41" s="21"/>
-      <c r="C41" s="6"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-    </row>
-    <row r="42" spans="2:17">
-      <c r="B42" s="21"/>
-      <c r="C42" s="6"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-    </row>
-    <row r="43" spans="2:17">
-      <c r="B43" s="21"/>
-      <c r="C43" s="6"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-    </row>
-    <row r="44" spans="2:17">
-      <c r="B44" s="21"/>
-      <c r="C44" s="6"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="2:17">
-      <c r="B45" s="21"/>
-      <c r="C45" s="6"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-    </row>
-    <row r="46" spans="2:17">
-      <c r="B46" s="21"/>
-      <c r="C46" s="6"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="33"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -3032,16 +3029,16 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
-    </row>
-    <row r="47" spans="2:17">
-      <c r="B47" s="21"/>
-      <c r="C47" s="6"/>
-      <c r="E47" s="9"/>
+      <c r="R46" s="9"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="C47" s="21"/>
+      <c r="D47" s="6"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="33"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -3049,16 +3046,16 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
-    </row>
-    <row r="48" spans="2:17">
-      <c r="B48" s="21"/>
-      <c r="C48" s="6"/>
-      <c r="E48" s="9"/>
+      <c r="R47" s="9"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="C48" s="21"/>
+      <c r="D48" s="6"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="33"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -3066,16 +3063,16 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
-    </row>
-    <row r="49" spans="2:17">
-      <c r="B49" s="21"/>
-      <c r="C49" s="6"/>
-      <c r="E49" s="9"/>
+      <c r="R48" s="9"/>
+    </row>
+    <row r="49" spans="3:18">
+      <c r="C49" s="21"/>
+      <c r="D49" s="6"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="33"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -3083,16 +3080,16 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
-    </row>
-    <row r="50" spans="2:17">
-      <c r="B50" s="21"/>
-      <c r="C50" s="6"/>
-      <c r="E50" s="9"/>
+      <c r="R49" s="9"/>
+    </row>
+    <row r="50" spans="3:18">
+      <c r="C50" s="21"/>
+      <c r="D50" s="6"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="33"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -3100,16 +3097,16 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="2:17">
-      <c r="B51" s="21"/>
-      <c r="C51" s="6"/>
-      <c r="E51" s="9"/>
+      <c r="R50" s="9"/>
+    </row>
+    <row r="51" spans="3:18">
+      <c r="C51" s="21"/>
+      <c r="D51" s="6"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="33"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -3117,33 +3114,221 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
-    </row>
-    <row r="52" spans="2:17">
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-    </row>
-    <row r="53" spans="2:17">
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
+      <c r="R51" s="9"/>
+    </row>
+    <row r="52" spans="3:18">
+      <c r="C52" s="21"/>
+      <c r="D52" s="6"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+    </row>
+    <row r="53" spans="3:18">
+      <c r="C53" s="21"/>
+      <c r="D53" s="6"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+    </row>
+    <row r="54" spans="3:18">
+      <c r="C54" s="21"/>
+      <c r="D54" s="6"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+    </row>
+    <row r="55" spans="3:18">
+      <c r="C55" s="21"/>
+      <c r="D55" s="6"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+    </row>
+    <row r="56" spans="3:18">
+      <c r="C56" s="21"/>
+      <c r="D56" s="6"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+    </row>
+    <row r="57" spans="3:18">
+      <c r="C57" s="21"/>
+      <c r="D57" s="6"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+    </row>
+    <row r="58" spans="3:18">
+      <c r="C58" s="21"/>
+      <c r="D58" s="6"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+    </row>
+    <row r="59" spans="3:18">
+      <c r="C59" s="21"/>
+      <c r="D59" s="6"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+    </row>
+    <row r="60" spans="3:18">
+      <c r="C60" s="21"/>
+      <c r="D60" s="6"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+    </row>
+    <row r="61" spans="3:18">
+      <c r="C61" s="21"/>
+      <c r="D61" s="6"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+    </row>
+    <row r="62" spans="3:18">
+      <c r="C62" s="21"/>
+      <c r="D62" s="6"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+    </row>
+    <row r="63" spans="3:18">
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+    </row>
+    <row r="64" spans="3:18">
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3160,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>

--- a/app/config/tables/maleClients/forms/partner6Month/partner6Month.xlsx
+++ b/app/config/tables/maleClients/forms/partner6Month/partner6Month.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31981" windowHeight="25580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31981" windowHeight="25580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="433">
   <si>
     <t>type</t>
   </si>
@@ -1220,9 +1220,6 @@
   </si>
   <si>
     <t>select_one</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>choice_list_name</t>
@@ -2099,7 +2096,7 @@
         <v>355</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -2111,16 +2108,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>431</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>432</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>3</v>
@@ -2359,10 +2356,10 @@
     </row>
     <row r="15" spans="1:11" ht="26.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="13"/>
@@ -2391,7 +2388,7 @@
     </row>
     <row r="17" spans="1:12" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="12"/>
@@ -2600,10 +2597,10 @@
     </row>
     <row r="29" spans="1:12" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>426</v>
+      </c>
+      <c r="B29" t="s">
         <v>427</v>
-      </c>
-      <c r="B29" t="s">
-        <v>428</v>
       </c>
       <c r="C29" s="19"/>
       <c r="E29" s="22"/>
@@ -2628,10 +2625,10 @@
     </row>
     <row r="31" spans="1:12" customFormat="1" ht="49.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B31" t="s">
         <v>421</v>
-      </c>
-      <c r="B31" t="s">
-        <v>422</v>
       </c>
       <c r="C31" s="19"/>
       <c r="E31" s="22"/>
@@ -2640,10 +2637,10 @@
     </row>
     <row r="32" spans="1:12" customFormat="1" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C32" s="19"/>
       <c r="E32" s="22"/>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="34" spans="1:12" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C34" s="19"/>
       <c r="E34" s="22"/>
@@ -2674,10 +2671,10 @@
     </row>
     <row r="35" spans="1:12" customFormat="1" ht="37.35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C35" s="19"/>
       <c r="E35" s="22"/>
@@ -2699,7 +2696,7 @@
     </row>
     <row r="37" spans="1:12" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C37" s="19"/>
       <c r="E37" s="22"/>
@@ -2708,7 +2705,7 @@
     </row>
     <row r="38" spans="1:12" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C38" s="19"/>
       <c r="E38" s="22"/>
@@ -2749,7 +2746,7 @@
     </row>
     <row r="41" spans="1:12" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C41" s="19"/>
       <c r="E41" s="22"/>
@@ -2758,7 +2755,7 @@
     </row>
     <row r="42" spans="1:12" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C42" s="19"/>
       <c r="E42" s="22"/>
@@ -3021,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3035,13 +3032,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3052,7 +3049,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>50</v>
@@ -3066,7 +3063,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>51</v>
@@ -3080,7 +3077,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>53</v>
@@ -3094,7 +3091,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
@@ -3108,7 +3105,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>51</v>
@@ -3122,7 +3119,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>53</v>
@@ -3136,7 +3133,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
@@ -3150,7 +3147,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>56</v>
@@ -3164,7 +3161,7 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>58</v>
@@ -3178,7 +3175,7 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>59</v>
@@ -3192,7 +3189,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>61</v>
@@ -3206,7 +3203,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>62</v>
@@ -3220,7 +3217,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>63</v>
@@ -3234,7 +3231,7 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>64</v>
@@ -3248,7 +3245,7 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>65</v>
@@ -3262,7 +3259,7 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>66</v>
@@ -3276,7 +3273,7 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>67</v>
@@ -3290,7 +3287,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>53</v>
@@ -3304,7 +3301,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>69</v>
@@ -3318,7 +3315,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>70</v>
@@ -3332,7 +3329,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>71</v>
@@ -3346,7 +3343,7 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>72</v>
@@ -3360,7 +3357,7 @@
         <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>73</v>
@@ -3374,7 +3371,7 @@
         <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>74</v>
@@ -3388,7 +3385,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>75</v>
@@ -3402,7 +3399,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>76</v>
@@ -3416,7 +3413,7 @@
         <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>77</v>
@@ -3430,7 +3427,7 @@
         <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>67</v>
@@ -3444,7 +3441,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>53</v>
@@ -3458,7 +3455,7 @@
         <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>79</v>
@@ -3472,7 +3469,7 @@
         <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>80</v>
@@ -3486,7 +3483,7 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>81</v>
@@ -3500,7 +3497,7 @@
         <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>82</v>
@@ -3514,7 +3511,7 @@
         <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>83</v>
@@ -3528,7 +3525,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>84</v>
@@ -3542,7 +3539,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>85</v>
@@ -3556,7 +3553,7 @@
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>67</v>
@@ -3570,7 +3567,7 @@
         <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>53</v>
@@ -3584,7 +3581,7 @@
         <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>88</v>
@@ -3598,7 +3595,7 @@
         <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>89</v>
@@ -3612,7 +3609,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>90</v>
@@ -3626,7 +3623,7 @@
         <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>91</v>
@@ -3640,7 +3637,7 @@
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>53</v>
@@ -3654,7 +3651,7 @@
         <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>93</v>
@@ -3668,7 +3665,7 @@
         <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>94</v>
@@ -3682,7 +3679,7 @@
         <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>95</v>
@@ -3696,7 +3693,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>96</v>
@@ -3710,7 +3707,7 @@
         <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>97</v>
@@ -3724,7 +3721,7 @@
         <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>98</v>
@@ -3738,7 +3735,7 @@
         <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>53</v>
@@ -3752,7 +3749,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>100</v>
@@ -3766,7 +3763,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>101</v>
@@ -3780,7 +3777,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>102</v>
@@ -3794,7 +3791,7 @@
         <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>103</v>
@@ -3808,7 +3805,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>105</v>
@@ -3822,7 +3819,7 @@
         <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>106</v>
@@ -3836,7 +3833,7 @@
         <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>107</v>
@@ -3850,7 +3847,7 @@
         <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>108</v>
@@ -3864,7 +3861,7 @@
         <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>110</v>
@@ -3878,7 +3875,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>111</v>
@@ -3892,7 +3889,7 @@
         <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>50</v>
@@ -3906,7 +3903,7 @@
         <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>51</v>
@@ -3920,7 +3917,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>53</v>
@@ -3934,7 +3931,7 @@
         <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>108</v>
@@ -3948,7 +3945,7 @@
         <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>114</v>
@@ -3962,7 +3959,7 @@
         <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>115</v>
@@ -3976,7 +3973,7 @@
         <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>116</v>
@@ -3990,7 +3987,7 @@
         <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>108</v>
@@ -4004,7 +4001,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>118</v>
@@ -4018,7 +4015,7 @@
         <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>119</v>
@@ -4032,7 +4029,7 @@
         <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>108</v>
@@ -4046,7 +4043,7 @@
         <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>121</v>
@@ -4060,7 +4057,7 @@
         <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>122</v>
@@ -4074,7 +4071,7 @@
         <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>123</v>
@@ -4088,7 +4085,7 @@
         <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>124</v>
@@ -4102,7 +4099,7 @@
         <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>125</v>
@@ -4116,7 +4113,7 @@
         <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>67</v>
@@ -4130,7 +4127,7 @@
         <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>53</v>
@@ -4141,7 +4138,7 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -4160,7 +4157,7 @@
         <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>127</v>
@@ -4174,7 +4171,7 @@
         <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>129</v>
@@ -4188,7 +4185,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>130</v>
@@ -4202,7 +4199,7 @@
         <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>132</v>
@@ -4216,7 +4213,7 @@
         <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>133</v>
@@ -4230,7 +4227,7 @@
         <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>50</v>
@@ -4244,7 +4241,7 @@
         <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>51</v>
@@ -4258,7 +4255,7 @@
         <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>135</v>
@@ -4269,7 +4266,7 @@
     </row>
     <row r="90" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -4277,7 +4274,7 @@
     </row>
     <row r="91" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4285,7 +4282,7 @@
     </row>
     <row r="92" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -4296,7 +4293,7 @@
         <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>110</v>
@@ -4310,7 +4307,7 @@
         <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>111</v>
@@ -4324,7 +4321,7 @@
         <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>137</v>
@@ -4338,7 +4335,7 @@
         <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>138</v>
@@ -4349,7 +4346,7 @@
     </row>
     <row r="97" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -4357,7 +4354,7 @@
     </row>
     <row r="98" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -4368,7 +4365,7 @@
         <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>140</v>
@@ -4382,7 +4379,7 @@
         <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>141</v>
@@ -4396,7 +4393,7 @@
         <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>142</v>
@@ -4410,7 +4407,7 @@
         <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>143</v>
@@ -4424,7 +4421,7 @@
         <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>144</v>
@@ -4438,7 +4435,7 @@
         <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>67</v>
@@ -4452,7 +4449,7 @@
         <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>53</v>
@@ -4463,7 +4460,7 @@
     </row>
     <row r="106" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4474,7 +4471,7 @@
         <v>14</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>145</v>
@@ -4488,7 +4485,7 @@
         <v>14</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>146</v>
@@ -4502,7 +4499,7 @@
         <v>14</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>147</v>
@@ -4516,7 +4513,7 @@
         <v>14</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>148</v>
@@ -4530,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>149</v>
@@ -4544,7 +4541,7 @@
         <v>14</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>150</v>
@@ -4558,7 +4555,7 @@
         <v>14</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>151</v>
@@ -4572,7 +4569,7 @@
         <v>14</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>152</v>
@@ -4586,7 +4583,7 @@
         <v>14</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>153</v>
@@ -4600,7 +4597,7 @@
         <v>14</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>67</v>
@@ -4614,7 +4611,7 @@
         <v>14</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>53</v>
@@ -4625,7 +4622,7 @@
     </row>
     <row r="118" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -4636,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>154</v>
@@ -4650,7 +4647,7 @@
         <v>15</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>155</v>
@@ -4664,7 +4661,7 @@
         <v>15</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>156</v>
@@ -4678,7 +4675,7 @@
         <v>15</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>157</v>
@@ -4692,7 +4689,7 @@
         <v>15</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>158</v>
@@ -4706,7 +4703,7 @@
         <v>15</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>159</v>
@@ -4720,7 +4717,7 @@
         <v>15</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>67</v>
@@ -4734,7 +4731,7 @@
         <v>15</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>160</v>
@@ -4748,7 +4745,7 @@
         <v>15</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>161</v>
@@ -4762,7 +4759,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>53</v>
@@ -4773,7 +4770,7 @@
     </row>
     <row r="129" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -4784,7 +4781,7 @@
         <v>162</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>163</v>
@@ -4798,7 +4795,7 @@
         <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>164</v>
@@ -4812,7 +4809,7 @@
         <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>165</v>
@@ -4826,7 +4823,7 @@
         <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>53</v>
@@ -4840,7 +4837,7 @@
         <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>108</v>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="135" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4862,7 +4859,7 @@
         <v>166</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>111</v>
@@ -4876,7 +4873,7 @@
         <v>166</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>110</v>
@@ -4890,7 +4887,7 @@
         <v>166</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>167</v>
@@ -4904,7 +4901,7 @@
         <v>166</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>53</v>
@@ -4918,7 +4915,7 @@
         <v>166</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>334</v>
@@ -4929,7 +4926,7 @@
     </row>
     <row r="141" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -4940,7 +4937,7 @@
         <v>338</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>336</v>
@@ -4954,7 +4951,7 @@
         <v>338</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>335</v>
@@ -4968,7 +4965,7 @@
         <v>338</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>337</v>
@@ -4982,7 +4979,7 @@
         <v>338</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>53</v>
@@ -4996,7 +4993,7 @@
         <v>169</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>336</v>
@@ -5010,7 +5007,7 @@
         <v>169</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>335</v>
@@ -5024,7 +5021,7 @@
         <v>169</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>53</v>
@@ -5038,7 +5035,7 @@
         <v>169</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>108</v>
@@ -5052,7 +5049,7 @@
         <v>42</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>170</v>
@@ -5066,7 +5063,7 @@
         <v>42</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>115</v>
@@ -5080,7 +5077,7 @@
         <v>42</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>116</v>
@@ -5094,7 +5091,7 @@
         <v>42</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>53</v>
@@ -5108,7 +5105,7 @@
         <v>42</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>108</v>
@@ -5119,7 +5116,7 @@
     </row>
     <row r="155" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5130,7 +5127,7 @@
         <v>44</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>118</v>
@@ -5144,7 +5141,7 @@
         <v>44</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>119</v>
@@ -5158,7 +5155,7 @@
         <v>44</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>108</v>
@@ -5172,7 +5169,7 @@
         <v>44</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>53</v>
@@ -5183,7 +5180,7 @@
     </row>
     <row r="160" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5194,7 +5191,7 @@
         <v>16</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>171</v>
@@ -5208,7 +5205,7 @@
         <v>16</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>172</v>
@@ -5222,7 +5219,7 @@
         <v>16</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>173</v>
@@ -5236,7 +5233,7 @@
         <v>16</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>174</v>
@@ -5250,7 +5247,7 @@
         <v>16</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>175</v>
@@ -5264,7 +5261,7 @@
         <v>16</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>176</v>
@@ -5278,7 +5275,7 @@
         <v>16</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>67</v>
@@ -5292,7 +5289,7 @@
         <v>16</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>53</v>
@@ -5303,7 +5300,7 @@
     </row>
     <row r="169" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -5314,7 +5311,7 @@
         <v>17</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>177</v>
@@ -5328,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>178</v>
@@ -5342,7 +5339,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>179</v>
@@ -5356,7 +5353,7 @@
         <v>17</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>53</v>
@@ -5370,7 +5367,7 @@
         <v>17</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>108</v>
@@ -5381,7 +5378,7 @@
     </row>
     <row r="175" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -5392,7 +5389,7 @@
         <v>19</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>50</v>
@@ -5406,7 +5403,7 @@
         <v>19</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>51</v>
@@ -5420,7 +5417,7 @@
         <v>19</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>180</v>
@@ -5434,7 +5431,7 @@
         <v>19</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>53</v>
@@ -5448,7 +5445,7 @@
         <v>19</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>181</v>
@@ -5459,7 +5456,7 @@
     </row>
     <row r="181" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -5470,7 +5467,7 @@
         <v>21</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>335</v>
@@ -5484,7 +5481,7 @@
         <v>21</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>337</v>
@@ -5498,7 +5495,7 @@
         <v>21</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>183</v>
@@ -5512,7 +5509,7 @@
         <v>21</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>53</v>
@@ -5526,7 +5523,7 @@
         <v>21</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>108</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="187" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -5548,7 +5545,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>184</v>
@@ -5562,7 +5559,7 @@
         <v>22</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>185</v>
@@ -5576,7 +5573,7 @@
         <v>22</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>186</v>
@@ -5590,7 +5587,7 @@
         <v>22</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>53</v>
@@ -5604,7 +5601,7 @@
         <v>22</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>108</v>
@@ -5615,7 +5612,7 @@
     </row>
     <row r="193" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -5626,7 +5623,7 @@
         <v>24</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>187</v>
@@ -5640,7 +5637,7 @@
         <v>24</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>188</v>
@@ -5654,7 +5651,7 @@
         <v>24</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>189</v>
@@ -5668,7 +5665,7 @@
         <v>24</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>190</v>
@@ -5682,7 +5679,7 @@
         <v>24</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>191</v>
@@ -5696,7 +5693,7 @@
         <v>24</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>67</v>
@@ -5710,7 +5707,7 @@
         <v>24</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>53</v>
@@ -5721,7 +5718,7 @@
     </row>
     <row r="201" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -5732,7 +5729,7 @@
         <v>27</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>192</v>
@@ -5746,7 +5743,7 @@
         <v>27</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>193</v>
@@ -5760,7 +5757,7 @@
         <v>27</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>194</v>
@@ -5774,7 +5771,7 @@
         <v>27</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>195</v>
@@ -5788,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>196</v>
@@ -5802,7 +5799,7 @@
         <v>27</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>197</v>
@@ -5816,7 +5813,7 @@
         <v>27</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>198</v>
@@ -5830,7 +5827,7 @@
         <v>27</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>199</v>
@@ -5844,7 +5841,7 @@
         <v>27</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>200</v>
@@ -5858,7 +5855,7 @@
         <v>27</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>201</v>
@@ -5872,7 +5869,7 @@
         <v>27</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>202</v>
@@ -5886,7 +5883,7 @@
         <v>27</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>203</v>
@@ -5900,7 +5897,7 @@
         <v>27</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>204</v>
@@ -5914,7 +5911,7 @@
         <v>27</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>205</v>
@@ -5928,7 +5925,7 @@
         <v>27</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>67</v>
@@ -5942,7 +5939,7 @@
         <v>27</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>206</v>
@@ -5956,7 +5953,7 @@
         <v>27</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>53</v>
@@ -5967,7 +5964,7 @@
     </row>
     <row r="219" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -5978,7 +5975,7 @@
         <v>28</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>207</v>
@@ -5992,7 +5989,7 @@
         <v>28</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>208</v>
@@ -6006,7 +6003,7 @@
         <v>28</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>209</v>
@@ -6020,7 +6017,7 @@
         <v>28</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>210</v>
@@ -6034,7 +6031,7 @@
         <v>28</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>211</v>
@@ -6048,7 +6045,7 @@
         <v>28</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>212</v>
@@ -6062,7 +6059,7 @@
         <v>28</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>213</v>
@@ -6076,7 +6073,7 @@
         <v>28</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>214</v>
@@ -6090,7 +6087,7 @@
         <v>28</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>215</v>
@@ -6104,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>216</v>
@@ -6118,7 +6115,7 @@
         <v>28</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>217</v>
@@ -6132,7 +6129,7 @@
         <v>28</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>218</v>
@@ -6146,7 +6143,7 @@
         <v>28</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>219</v>
@@ -6160,7 +6157,7 @@
         <v>28</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>220</v>
@@ -6174,7 +6171,7 @@
         <v>28</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>67</v>
@@ -6188,7 +6185,7 @@
         <v>28</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>53</v>
@@ -6200,7 +6197,7 @@
     <row r="236" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -6211,7 +6208,7 @@
         <v>29</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>187</v>
@@ -6225,7 +6222,7 @@
         <v>29</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>188</v>
@@ -6239,7 +6236,7 @@
         <v>29</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>189</v>
@@ -6253,7 +6250,7 @@
         <v>29</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>190</v>
@@ -6267,7 +6264,7 @@
         <v>29</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>191</v>
@@ -6281,7 +6278,7 @@
         <v>29</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>67</v>
@@ -6295,7 +6292,7 @@
         <v>29</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>53</v>
@@ -6307,7 +6304,7 @@
     <row r="244" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -6318,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>221</v>
@@ -6332,7 +6329,7 @@
         <v>30</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>222</v>
@@ -6346,7 +6343,7 @@
         <v>30</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>223</v>
@@ -6360,7 +6357,7 @@
         <v>30</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>53</v>
@@ -6371,7 +6368,7 @@
     </row>
     <row r="249" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -6382,7 +6379,7 @@
         <v>31</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>224</v>
@@ -6396,7 +6393,7 @@
         <v>31</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>225</v>
@@ -6410,7 +6407,7 @@
         <v>31</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>226</v>
@@ -6424,7 +6421,7 @@
         <v>31</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>227</v>
@@ -6438,7 +6435,7 @@
         <v>31</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>221</v>
@@ -6452,7 +6449,7 @@
         <v>31</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>53</v>
@@ -6463,7 +6460,7 @@
     </row>
     <row r="256" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -6474,7 +6471,7 @@
         <v>32</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>105</v>
@@ -6488,7 +6485,7 @@
         <v>32</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>106</v>
@@ -6502,7 +6499,7 @@
         <v>32</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>107</v>
@@ -6516,7 +6513,7 @@
         <v>32</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>53</v>
@@ -6530,7 +6527,7 @@
         <v>32</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>108</v>
@@ -6541,7 +6538,7 @@
     </row>
     <row r="262" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -6552,7 +6549,7 @@
         <v>33</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>111</v>
@@ -6566,7 +6563,7 @@
         <v>33</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>110</v>
@@ -6580,7 +6577,7 @@
         <v>33</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>228</v>
@@ -6594,7 +6591,7 @@
         <v>33</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>53</v>
@@ -6605,7 +6602,7 @@
     </row>
     <row r="267" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -6616,7 +6613,7 @@
         <v>34</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>111</v>
@@ -6630,7 +6627,7 @@
         <v>34</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>110</v>
@@ -6644,7 +6641,7 @@
         <v>34</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>229</v>
@@ -6658,7 +6655,7 @@
         <v>34</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>53</v>
@@ -6669,7 +6666,7 @@
     </row>
     <row r="272" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -6680,7 +6677,7 @@
         <v>35</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>230</v>
@@ -6694,7 +6691,7 @@
         <v>35</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>231</v>
@@ -6708,7 +6705,7 @@
         <v>35</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>232</v>
@@ -6722,7 +6719,7 @@
         <v>35</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>233</v>
@@ -6736,7 +6733,7 @@
         <v>35</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>67</v>
@@ -6750,7 +6747,7 @@
         <v>35</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>53</v>
@@ -6764,7 +6761,7 @@
         <v>35</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>108</v>
@@ -6775,14 +6772,14 @@
     </row>
     <row r="280" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
       <c r="B281" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C281" s="8"/>
       <c r="E281" s="2"/>
@@ -6792,7 +6789,7 @@
         <v>235</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C282" t="s">
         <v>110</v>
@@ -6804,7 +6801,7 @@
         <v>235</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C283" t="s">
         <v>111</v>
@@ -6816,7 +6813,7 @@
         <v>235</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C284" t="s">
         <v>137</v>
@@ -6828,7 +6825,7 @@
         <v>235</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C285" t="s">
         <v>138</v>
@@ -6840,7 +6837,7 @@
         <v>236</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>132</v>
@@ -6852,7 +6849,7 @@
         <v>236</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>133</v>
@@ -6864,7 +6861,7 @@
         <v>237</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>238</v>
@@ -6876,7 +6873,7 @@
         <v>237</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>239</v>
@@ -6888,7 +6885,7 @@
         <v>237</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>240</v>
@@ -6900,7 +6897,7 @@
         <v>237</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>241</v>
@@ -6912,7 +6909,7 @@
         <v>237</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>242</v>
@@ -6924,7 +6921,7 @@
         <v>237</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>243</v>
@@ -6936,7 +6933,7 @@
         <v>244</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C294" t="s">
         <v>50</v>
@@ -6948,7 +6945,7 @@
         <v>244</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C295" t="s">
         <v>51</v>
@@ -6960,7 +6957,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>243</v>
@@ -6972,7 +6969,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>50</v>
@@ -6984,7 +6981,7 @@
         <v>245</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>164</v>
@@ -6996,7 +6993,7 @@
         <v>245</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>165</v>
@@ -7008,7 +7005,7 @@
         <v>245</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>53</v>
@@ -7020,7 +7017,7 @@
         <v>245</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>108</v>
@@ -7032,7 +7029,7 @@
         <v>246</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C302" t="s">
         <v>110</v>
@@ -7044,7 +7041,7 @@
         <v>246</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C303" t="s">
         <v>111</v>
@@ -7056,7 +7053,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C304" t="s">
         <v>247</v>
@@ -7068,7 +7065,7 @@
         <v>246</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C305" t="s">
         <v>53</v>
@@ -7080,7 +7077,7 @@
         <v>246</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C306" s="8" t="s">
         <v>108</v>
@@ -7092,7 +7089,7 @@
         <v>248</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C307" t="s">
         <v>50</v>
@@ -7104,7 +7101,7 @@
         <v>248</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C308" t="s">
         <v>51</v>
@@ -7116,7 +7113,7 @@
         <v>248</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>243</v>
@@ -7128,7 +7125,7 @@
         <v>248</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>108</v>
@@ -7140,7 +7137,7 @@
         <v>249</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C311" t="s">
         <v>250</v>
@@ -7152,7 +7149,7 @@
         <v>249</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C312" t="s">
         <v>251</v>
@@ -7164,7 +7161,7 @@
         <v>249</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>243</v>
@@ -7176,7 +7173,7 @@
         <v>249</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>108</v>
@@ -7188,7 +7185,7 @@
         <v>252</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C315" t="s">
         <v>253</v>
@@ -7200,7 +7197,7 @@
         <v>252</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C316" t="s">
         <v>115</v>
@@ -7212,7 +7209,7 @@
         <v>252</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C317" t="s">
         <v>116</v>
@@ -7224,7 +7221,7 @@
         <v>252</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>243</v>
@@ -7236,7 +7233,7 @@
         <v>252</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C319" s="8" t="s">
         <v>108</v>
@@ -7248,7 +7245,7 @@
         <v>254</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C320" s="8" t="s">
         <v>118</v>
@@ -7260,7 +7257,7 @@
         <v>254</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C321" s="8" t="s">
         <v>255</v>
@@ -7272,7 +7269,7 @@
         <v>254</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C322" s="8" t="s">
         <v>256</v>
@@ -7284,7 +7281,7 @@
         <v>254</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C323" s="8" t="s">
         <v>257</v>
@@ -7296,7 +7293,7 @@
         <v>254</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C324" s="8" t="s">
         <v>243</v>
@@ -7308,7 +7305,7 @@
         <v>254</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C325" s="8" t="s">
         <v>108</v>
@@ -7320,7 +7317,7 @@
         <v>258</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C326" t="s">
         <v>259</v>
@@ -7332,7 +7329,7 @@
         <v>258</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C327" t="s">
         <v>260</v>
@@ -7344,7 +7341,7 @@
         <v>258</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C328" t="s">
         <v>116</v>
@@ -7356,7 +7353,7 @@
         <v>258</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C329" s="8" t="s">
         <v>243</v>
@@ -7368,7 +7365,7 @@
         <v>258</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C330" s="8" t="s">
         <v>108</v>
@@ -7380,7 +7377,7 @@
         <v>261</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C331" t="s">
         <v>262</v>
@@ -7392,7 +7389,7 @@
         <v>261</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C332" t="s">
         <v>263</v>
@@ -7404,7 +7401,7 @@
         <v>261</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C333" t="s">
         <v>264</v>
@@ -7416,7 +7413,7 @@
         <v>261</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C334" t="s">
         <v>265</v>
@@ -7428,7 +7425,7 @@
         <v>261</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C335" t="s">
         <v>266</v>
@@ -7440,7 +7437,7 @@
         <v>261</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C336" t="s">
         <v>267</v>
@@ -7452,7 +7449,7 @@
         <v>261</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C337" t="s">
         <v>67</v>
@@ -7464,7 +7461,7 @@
         <v>261</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C338" t="s">
         <v>268</v>
@@ -7476,7 +7473,7 @@
         <v>269</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C339" t="s">
         <v>262</v>
@@ -7488,7 +7485,7 @@
         <v>269</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C340" t="s">
         <v>263</v>
@@ -7500,7 +7497,7 @@
         <v>269</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C341" t="s">
         <v>264</v>
@@ -7512,7 +7509,7 @@
         <v>269</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C342" t="s">
         <v>265</v>
@@ -7524,7 +7521,7 @@
         <v>269</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C343" t="s">
         <v>266</v>
@@ -7536,7 +7533,7 @@
         <v>269</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C344" t="s">
         <v>267</v>
@@ -7548,7 +7545,7 @@
         <v>269</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C345" t="s">
         <v>67</v>
@@ -7560,7 +7557,7 @@
         <v>269</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C346" t="s">
         <v>270</v>
@@ -7572,7 +7569,7 @@
         <v>269</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C347" t="s">
         <v>268</v>
@@ -7584,7 +7581,7 @@
         <v>271</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C348" t="s">
         <v>50</v>
@@ -7596,7 +7593,7 @@
         <v>271</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C349" t="s">
         <v>51</v>
@@ -7608,7 +7605,7 @@
         <v>271</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C350" t="s">
         <v>272</v>
@@ -7620,7 +7617,7 @@
         <v>271</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C351" s="8" t="s">
         <v>243</v>
@@ -7632,7 +7629,7 @@
         <v>271</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C352" s="8" t="s">
         <v>108</v>
@@ -7680,7 +7677,7 @@
         <v>273</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C356" s="8" t="s">
         <v>243</v>
@@ -7692,7 +7689,7 @@
         <v>273</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C357" s="8" t="s">
         <v>108</v>
@@ -7704,7 +7701,7 @@
         <v>276</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C358" t="s">
         <v>184</v>
@@ -7716,7 +7713,7 @@
         <v>276</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C359" t="s">
         <v>185</v>
@@ -7728,7 +7725,7 @@
         <v>276</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C360" s="8" t="s">
         <v>186</v>
@@ -7740,7 +7737,7 @@
         <v>276</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C361" s="8" t="s">
         <v>53</v>
@@ -7752,7 +7749,7 @@
         <v>276</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C362" s="8" t="s">
         <v>108</v>
@@ -7764,7 +7761,7 @@
         <v>277</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C363" s="8" t="s">
         <v>187</v>
@@ -7776,7 +7773,7 @@
         <v>277</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C364" s="8" t="s">
         <v>278</v>
@@ -7788,7 +7785,7 @@
         <v>277</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C365" s="8" t="s">
         <v>279</v>
@@ -7800,7 +7797,7 @@
         <v>277</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C366" s="8" t="s">
         <v>190</v>
@@ -7812,7 +7809,7 @@
         <v>277</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C367" s="8" t="s">
         <v>191</v>
@@ -7824,7 +7821,7 @@
         <v>277</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C368" s="8" t="s">
         <v>67</v>
@@ -7836,7 +7833,7 @@
         <v>277</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C369" s="8" t="s">
         <v>53</v>
@@ -7848,7 +7845,7 @@
         <v>280</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C370" s="8" t="s">
         <v>192</v>
@@ -7860,7 +7857,7 @@
         <v>280</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C371" s="8" t="s">
         <v>193</v>
@@ -7872,7 +7869,7 @@
         <v>280</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C372" s="8" t="s">
         <v>194</v>
@@ -7884,7 +7881,7 @@
         <v>280</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C373" s="8" t="s">
         <v>195</v>
@@ -7896,7 +7893,7 @@
         <v>280</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C374" s="8" t="s">
         <v>196</v>
@@ -7908,7 +7905,7 @@
         <v>280</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C375" s="8" t="s">
         <v>197</v>
@@ -7920,7 +7917,7 @@
         <v>280</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C376" s="8" t="s">
         <v>198</v>
@@ -7932,7 +7929,7 @@
         <v>280</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C377" s="8" t="s">
         <v>199</v>
@@ -7944,7 +7941,7 @@
         <v>280</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C378" s="8" t="s">
         <v>200</v>
@@ -7956,7 +7953,7 @@
         <v>280</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C379" s="8" t="s">
         <v>201</v>
@@ -7968,7 +7965,7 @@
         <v>280</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C380" s="8" t="s">
         <v>202</v>
@@ -7980,7 +7977,7 @@
         <v>280</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C381" s="8" t="s">
         <v>203</v>
@@ -7992,7 +7989,7 @@
         <v>280</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C382" s="8" t="s">
         <v>204</v>
@@ -8004,7 +8001,7 @@
         <v>280</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C383" s="8" t="s">
         <v>205</v>
@@ -8016,7 +8013,7 @@
         <v>280</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C384" s="8" t="s">
         <v>67</v>
@@ -8028,7 +8025,7 @@
         <v>280</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C385" s="8" t="s">
         <v>206</v>
@@ -8040,7 +8037,7 @@
         <v>280</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C386" s="8" t="s">
         <v>281</v>
@@ -8052,7 +8049,7 @@
         <v>282</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C387" s="8" t="s">
         <v>283</v>
@@ -8064,7 +8061,7 @@
         <v>282</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C388" s="8" t="s">
         <v>284</v>
@@ -8076,7 +8073,7 @@
         <v>282</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C389" s="8" t="s">
         <v>285</v>
@@ -8088,7 +8085,7 @@
         <v>282</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C390" s="8" t="s">
         <v>286</v>
@@ -8100,7 +8097,7 @@
         <v>282</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C391" s="8" t="s">
         <v>211</v>
@@ -8112,7 +8109,7 @@
         <v>282</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C392" s="8" t="s">
         <v>212</v>
@@ -8124,7 +8121,7 @@
         <v>282</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C393" s="8" t="s">
         <v>213</v>
@@ -8136,7 +8133,7 @@
         <v>282</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C394" s="8" t="s">
         <v>214</v>
@@ -8148,7 +8145,7 @@
         <v>282</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C395" s="8" t="s">
         <v>215</v>
@@ -8160,7 +8157,7 @@
         <v>282</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>216</v>
@@ -8172,7 +8169,7 @@
         <v>282</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C397" s="8" t="s">
         <v>217</v>
@@ -8184,7 +8181,7 @@
         <v>282</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C398" s="8" t="s">
         <v>287</v>
@@ -8196,7 +8193,7 @@
         <v>282</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C399" s="8" t="s">
         <v>219</v>
@@ -8208,7 +8205,7 @@
         <v>282</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C400" s="8" t="s">
         <v>288</v>
@@ -8220,7 +8217,7 @@
         <v>282</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C401" s="8" t="s">
         <v>67</v>
@@ -8232,7 +8229,7 @@
         <v>282</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C402" s="8" t="s">
         <v>53</v>
@@ -8244,7 +8241,7 @@
         <v>289</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C403" s="8" t="s">
         <v>187</v>
@@ -8256,7 +8253,7 @@
         <v>289</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C404" s="8" t="s">
         <v>278</v>
@@ -8268,7 +8265,7 @@
         <v>289</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C405" s="8" t="s">
         <v>279</v>
@@ -8280,7 +8277,7 @@
         <v>289</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>190</v>
@@ -8292,7 +8289,7 @@
         <v>289</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C407" s="8" t="s">
         <v>191</v>
@@ -8304,7 +8301,7 @@
         <v>289</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C408" s="8" t="s">
         <v>67</v>
@@ -8316,7 +8313,7 @@
         <v>289</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C409" s="8" t="s">
         <v>53</v>
@@ -8328,7 +8325,7 @@
         <v>290</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C410" s="8" t="s">
         <v>291</v>
@@ -8340,7 +8337,7 @@
         <v>290</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C411" s="8" t="s">
         <v>292</v>
@@ -8352,7 +8349,7 @@
         <v>290</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>53</v>
@@ -8364,7 +8361,7 @@
         <v>290</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C413" s="8" t="s">
         <v>108</v>
@@ -8376,7 +8373,7 @@
         <v>293</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C414" s="8" t="s">
         <v>221</v>
@@ -8388,7 +8385,7 @@
         <v>293</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C415" s="8" t="s">
         <v>222</v>
@@ -8400,7 +8397,7 @@
         <v>293</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C416" s="8" t="s">
         <v>223</v>
@@ -8412,7 +8409,7 @@
         <v>293</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C417" t="s">
         <v>53</v>
@@ -8424,7 +8421,7 @@
         <v>294</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C418" t="s">
         <v>87</v>
@@ -8436,7 +8433,7 @@
         <v>294</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C419" t="s">
         <v>192</v>
@@ -8448,7 +8445,7 @@
         <v>294</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C420" t="s">
         <v>193</v>
@@ -8460,7 +8457,7 @@
         <v>294</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C421" t="s">
         <v>194</v>
@@ -8472,7 +8469,7 @@
         <v>294</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C422" t="s">
         <v>195</v>
@@ -8484,7 +8481,7 @@
         <v>294</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C423" t="s">
         <v>196</v>
@@ -8496,7 +8493,7 @@
         <v>294</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C424" t="s">
         <v>197</v>
@@ -8508,7 +8505,7 @@
         <v>294</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C425" t="s">
         <v>198</v>
@@ -8520,7 +8517,7 @@
         <v>294</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C426" t="s">
         <v>199</v>
@@ -8532,7 +8529,7 @@
         <v>294</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C427" t="s">
         <v>200</v>
@@ -8544,7 +8541,7 @@
         <v>294</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C428" t="s">
         <v>201</v>
@@ -8556,7 +8553,7 @@
         <v>294</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C429" t="s">
         <v>202</v>
@@ -8568,7 +8565,7 @@
         <v>294</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C430" t="s">
         <v>203</v>
@@ -8580,7 +8577,7 @@
         <v>294</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C431" t="s">
         <v>204</v>
@@ -8592,7 +8589,7 @@
         <v>294</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C432" t="s">
         <v>67</v>
@@ -8604,7 +8601,7 @@
         <v>294</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C433" t="s">
         <v>53</v>
@@ -8616,7 +8613,7 @@
         <v>295</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C434" t="s">
         <v>296</v>
@@ -8628,7 +8625,7 @@
         <v>295</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C435" t="s">
         <v>225</v>
@@ -8640,7 +8637,7 @@
         <v>295</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C436" t="s">
         <v>226</v>
@@ -8652,7 +8649,7 @@
         <v>295</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C437" t="s">
         <v>227</v>
@@ -8664,7 +8661,7 @@
         <v>295</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C438" t="s">
         <v>221</v>
@@ -8676,7 +8673,7 @@
         <v>295</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C439" t="s">
         <v>53</v>
@@ -8688,7 +8685,7 @@
         <v>297</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C440" t="s">
         <v>298</v>
@@ -8700,7 +8697,7 @@
         <v>297</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C441" t="s">
         <v>299</v>
@@ -8712,7 +8709,7 @@
         <v>297</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C442" t="s">
         <v>231</v>
@@ -8724,7 +8721,7 @@
         <v>297</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C443" t="s">
         <v>232</v>
@@ -8736,7 +8733,7 @@
         <v>297</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C444" t="s">
         <v>233</v>
@@ -8748,7 +8745,7 @@
         <v>297</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C445" t="s">
         <v>67</v>
@@ -8760,7 +8757,7 @@
         <v>297</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C446" t="s">
         <v>53</v>
@@ -8772,7 +8769,7 @@
         <v>297</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C447" t="s">
         <v>108</v>
@@ -8784,7 +8781,7 @@
         <v>300</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C448" t="s">
         <v>301</v>
@@ -8796,7 +8793,7 @@
         <v>300</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C449" t="s">
         <v>302</v>
@@ -8808,7 +8805,7 @@
         <v>300</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C450" t="s">
         <v>53</v>
@@ -8820,7 +8817,7 @@
         <v>303</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C451" t="s">
         <v>111</v>
@@ -8832,7 +8829,7 @@
         <v>303</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C452" t="s">
         <v>110</v>
@@ -8844,7 +8841,7 @@
         <v>303</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C453" t="s">
         <v>304</v>
@@ -8856,7 +8853,7 @@
         <v>303</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C454" t="s">
         <v>53</v>
@@ -8868,7 +8865,7 @@
         <v>305</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C455" t="s">
         <v>306</v>
@@ -8880,7 +8877,7 @@
         <v>305</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C456" t="s">
         <v>307</v>
@@ -8892,7 +8889,7 @@
         <v>305</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C457" t="s">
         <v>308</v>
@@ -8904,7 +8901,7 @@
         <v>305</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C458" t="s">
         <v>51</v>
@@ -8916,7 +8913,7 @@
         <v>305</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C459" t="s">
         <v>53</v>
@@ -8928,7 +8925,7 @@
         <v>305</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C460" t="s">
         <v>108</v>
@@ -8940,7 +8937,7 @@
         <v>309</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C461" t="s">
         <v>310</v>
@@ -8952,7 +8949,7 @@
         <v>309</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C462" t="s">
         <v>311</v>
@@ -8964,7 +8961,7 @@
         <v>309</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C463" t="s">
         <v>312</v>
@@ -8976,7 +8973,7 @@
         <v>309</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C464" t="s">
         <v>313</v>
@@ -8988,7 +8985,7 @@
         <v>309</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C465" t="s">
         <v>67</v>
@@ -9000,7 +8997,7 @@
         <v>309</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C466" t="s">
         <v>53</v>
@@ -9012,7 +9009,7 @@
         <v>314</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C467" t="s">
         <v>315</v>
@@ -9024,7 +9021,7 @@
         <v>314</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C468" t="s">
         <v>316</v>
@@ -9036,7 +9033,7 @@
         <v>314</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C469" t="s">
         <v>317</v>
@@ -9048,7 +9045,7 @@
         <v>314</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C470" t="s">
         <v>318</v>
@@ -9060,7 +9057,7 @@
         <v>314</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C471" t="s">
         <v>319</v>
@@ -9072,7 +9069,7 @@
         <v>314</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C472" t="s">
         <v>53</v>
@@ -9084,7 +9081,7 @@
         <v>314</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C473" t="s">
         <v>108</v>
@@ -9096,7 +9093,7 @@
         <v>320</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C474" t="s">
         <v>310</v>
@@ -9108,7 +9105,7 @@
         <v>320</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C475" t="s">
         <v>321</v>
@@ -9120,7 +9117,7 @@
         <v>320</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C476" t="s">
         <v>322</v>
@@ -9132,7 +9129,7 @@
         <v>320</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C477" t="s">
         <v>53</v>
@@ -9144,7 +9141,7 @@
         <v>320</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C478" t="s">
         <v>108</v>
@@ -9156,7 +9153,7 @@
         <v>323</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C479" t="s">
         <v>132</v>
@@ -9168,7 +9165,7 @@
         <v>323</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C480" t="s">
         <v>133</v>
@@ -9180,7 +9177,7 @@
         <v>324</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C481" t="s">
         <v>132</v>
@@ -9192,7 +9189,7 @@
         <v>324</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C482" t="s">
         <v>133</v>
@@ -9204,7 +9201,7 @@
         <v>324</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C483" t="s">
         <v>325</v>
@@ -9216,7 +9213,7 @@
         <v>326</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C484" t="s">
         <v>50</v>
@@ -9228,7 +9225,7 @@
         <v>326</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C485" t="s">
         <v>51</v>
@@ -9240,7 +9237,7 @@
         <v>326</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C486" t="s">
         <v>327</v>
@@ -9252,7 +9249,7 @@
         <v>326</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C487" t="s">
         <v>135</v>
@@ -9264,7 +9261,7 @@
         <v>339</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>340</v>
@@ -9276,7 +9273,7 @@
         <v>339</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>53</v>
@@ -9298,7 +9295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9309,13 +9306,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9335,7 +9332,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B3" s="2">
         <v>20140513</v>
@@ -9347,11 +9344,11 @@
     </row>
     <row r="4" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9359,10 +9356,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
